--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16351297.63</v>
+        <v>36030393.86</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563837.85</v>
+        <v>735314.16</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1032452.98</v>
+        <v>1159025.87</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505335.86</v>
+        <v>505964.21</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248089.48</v>
+        <v>1248772.51</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970765.5699999999</v>
+        <v>970448.12</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222526.05</v>
+        <v>234582.62</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2226159.1</v>
+        <v>2224219.38</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995348.4300000001</v>
+        <v>995715.4399999999</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1298483.12</v>
+        <v>1299939.38</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>642513.52</v>
+        <v>623942.26</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576211.38</v>
+        <v>515684.63</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890914.64</v>
+        <v>890504.14</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352361.87</v>
+        <v>352789.07</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1192992.13</v>
+        <v>1192345.42</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245547.25</v>
+        <v>245748.44</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>723978.24</v>
+        <v>764740.78</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769308.0600000001</v>
+        <v>766816.51</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324079.65</v>
+        <v>323697.78</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520037.52</v>
+        <v>520455.46</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163157.61</v>
+        <v>158482.51</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112037.16</v>
+        <v>126698.6</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>201271.46</v>
+        <v>201160.73</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210386.79</v>
+        <v>182317.91</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>403751.96</v>
+        <v>531512.36</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117757.37</v>
+        <v>117788.42</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39210.95</v>
+        <v>39185.98</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98918.47</v>
+        <v>98767.83</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132569.11</v>
+        <v>132656.06</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25844.85</v>
+        <v>25847.62</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,207 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109287.05</v>
+        <v>109335.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>525177.3100000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>237556.38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7498.74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15997.27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1848803.38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2056781.92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>141004.13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>101944.42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3752060.88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>26923.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>899531.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>697809.53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29011.95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>887679.4300000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11797.57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2128574.97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>24183.88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>25847.62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2236809.44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3816255.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,275 +439,359 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36030393.86</v>
+        <v>531512.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>579804.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735314.16</v>
+        <v>1159025.87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1125849.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1159025.87</v>
+        <v>117788.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>117739.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505964.21</v>
+        <v>201160.73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>212982.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248772.51</v>
+        <v>505964.21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>505817.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970448.12</v>
+        <v>1248772.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1247657.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234582.62</v>
+        <v>26923.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26848.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2224219.38</v>
+        <v>899531.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>898923.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995715.4399999999</v>
+        <v>39185.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37353.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1299939.38</v>
+        <v>11797.57</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11805.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>623942.26</v>
+        <v>29011.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28991.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>515684.63</v>
+        <v>970448.12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1092459.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890504.14</v>
-      </c>
+        <v>234582.62</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352789.07</v>
+        <v>525177.3100000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>540524.3100000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1192345.42</v>
+        <v>2128574.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2111027.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245748.44</v>
+        <v>2224219.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2224279.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>764740.78</v>
+        <v>995715.4399999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>995074.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>766816.51</v>
+        <v>15997.27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16001.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323697.78</v>
+        <v>1848803.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1849616.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520455.46</v>
+        <v>2056781.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2056160.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158482.51</v>
+        <v>237556.38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>237529.61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>126698.6</v>
+        <v>697809.53</v>
+      </c>
+      <c r="C23" t="n">
+        <v>697652.6899999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>201160.73</v>
+        <v>7498.74</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7507.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182317.91</v>
+        <v>764740.78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>837093.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>531512.36</v>
+        <v>766816.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>823407.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117788.42</v>
+        <v>1299939.38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1343412.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39185.98</v>
+        <v>623942.26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>622840.87</v>
       </c>
     </row>
     <row r="29">
@@ -719,235 +803,318 @@
       <c r="B29" t="n">
         <v>98767.83</v>
       </c>
+      <c r="C29" t="n">
+        <v>99230.78999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>132656.06</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>6080452.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25847.62</v>
+        <v>132656.06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>132530.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109335.23</v>
+        <v>24183.88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24222.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>525177.3100000001</v>
+        <v>515684.63</v>
+      </c>
+      <c r="C33" t="n">
+        <v>501205.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>237556.38</v>
+        <v>890504.14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>890426.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7498.74</v>
+        <v>126698.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>120674.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15997.27</v>
+        <v>25847.62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35433.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1848803.38</v>
+        <v>25847.62</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35433.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2056781.92</v>
+        <v>141004.13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>146018.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>141004.13</v>
+        <v>101944.42</v>
+      </c>
+      <c r="C39" t="n">
+        <v>101939.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101944.42</v>
+        <v>109335.23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>109322.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3752060.88</v>
+        <v>323697.78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>323614.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26923.17</v>
+        <v>520455.46</v>
+      </c>
+      <c r="C42" t="n">
+        <v>752391.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>899531.12</v>
+        <v>182317.91</v>
+      </c>
+      <c r="C43" t="n">
+        <v>182433.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>697809.53</v>
+        <v>352789.07</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352786.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29011.95</v>
+        <v>245748.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245597.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>887679.4300000001</v>
+        <v>1192345.42</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1281351.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11797.57</v>
+        <v>2236809.44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2237061.58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2128574.97</v>
+        <v>3816255.48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3815299.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>24183.88</v>
+        <v>3752060.88</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3751419.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25847.62</v>
+        <v>887679.4300000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>844626.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2236809.44</v>
+        <v>158482.51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>158599.93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3816255.48</v>
+        <v>735314.16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>866743.58</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>36030393.86</v>
+      </c>
+      <c r="C53" t="n">
+        <v>42470435.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,525 +439,686 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43156837.09</v>
+        <v>579804.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615125.1800000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863136.74</v>
+        <v>1125849.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1125857.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579804.47</v>
+        <v>117739.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>127982.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1125849.18</v>
+        <v>212982.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>212925.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117739.51</v>
+        <v>505817.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>505965.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212982.03</v>
+        <v>1247657.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1248017.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505817.74</v>
+        <v>487183.81</v>
+      </c>
+      <c r="C8" t="n">
+        <v>542205.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1247657.65</v>
+        <v>26848.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26952.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487183.81</v>
+        <v>898923.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>901326.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26848.79</v>
+        <v>37353.64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37364.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>898923.75</v>
+        <v>11805.46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11801.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37353.64</v>
+        <v>28991.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29005.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11805.46</v>
+        <v>1092459.64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1092300.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28991.39</v>
+        <v>234651.57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>255256.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092459.64</v>
+        <v>540524.3100000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>507065.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234651.57</v>
+        <v>2111027.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2090732.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540524.3100000001</v>
+        <v>2224279.86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2224566.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2111027.88</v>
+        <v>995074.59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>995746.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2224279.86</v>
+        <v>237529.61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>237215.71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>995074.59</v>
+        <v>7507.43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7498.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237529.61</v>
+        <v>16001.67</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16011.47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7507.43</v>
+        <v>1849616.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1848703.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16001.67</v>
+        <v>2056160.31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2057737.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1849616.67</v>
+        <v>697652.6899999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>697857.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2056160.31</v>
+        <v>837093.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>857810.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>697652.6899999999</v>
+        <v>823407.99</v>
+      </c>
+      <c r="C27" t="n">
+        <v>841844.76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>837093.1</v>
+        <v>1343412.19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1459212.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>823407.99</v>
+        <v>622840.87</v>
+      </c>
+      <c r="C29" t="n">
+        <v>652445.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1343412.19</v>
+        <v>99230.78999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>98788.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>622840.87</v>
+        <v>6080452.74</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6197094.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99230.78999999999</v>
+        <v>132530.34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>132550.47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6080452.74</v>
+        <v>24222.87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24177.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132530.34</v>
+        <v>501205.92</v>
+      </c>
+      <c r="C34" t="n">
+        <v>491351.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24222.87</v>
+        <v>890426.16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>891680.0600000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501205.92</v>
+        <v>120674.03</v>
+      </c>
+      <c r="C36" t="n">
+        <v>126296.71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>890426.16</v>
+        <v>35433.55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35438.87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>120674.03</v>
+        <v>146018.28</v>
+      </c>
+      <c r="C38" t="n">
+        <v>168968.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35433.55</v>
+        <v>101939.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>102030.77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146018.28</v>
+        <v>109322.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>109287.81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101939.35</v>
+        <v>323614.49</v>
+      </c>
+      <c r="C41" t="n">
+        <v>323961.47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109322.8</v>
+        <v>752391.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>752047.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>323614.49</v>
+        <v>182433.71</v>
+      </c>
+      <c r="C43" t="n">
+        <v>222467.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>752391.42</v>
+        <v>352786.47</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352905.89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>182433.71</v>
+        <v>245597.84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245914.59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352786.47</v>
+        <v>1281351.12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1281210.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>245597.84</v>
+        <v>2237061.58</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2238299.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1281351.12</v>
+        <v>3815299.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3981705.87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2237061.58</v>
+        <v>3751419.83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3753808.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3815299.8</v>
+        <v>844626.27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>844640.45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3751419.83</v>
+        <v>158599.93</v>
+      </c>
+      <c r="C51" t="n">
+        <v>149476.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>844626.27</v>
+        <v>863136.74</v>
+      </c>
+      <c r="C52" t="n">
+        <v>875012.78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>158599.93</v>
+        <v>43156837.09</v>
+      </c>
+      <c r="C53" t="n">
+        <v>43750639.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -662,9 +662,7 @@
       <c r="B18" t="n">
         <v>2224279.86</v>
       </c>
-      <c r="C18" t="n">
-        <v>2224566.25</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +673,7 @@
       <c r="B19" t="n">
         <v>995074.59</v>
       </c>
-      <c r="C19" t="n">
-        <v>995746.24</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +684,7 @@
       <c r="B20" t="n">
         <v>237529.61</v>
       </c>
-      <c r="C20" t="n">
-        <v>237215.71</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +695,7 @@
       <c r="B21" t="n">
         <v>7507.43</v>
       </c>
-      <c r="C21" t="n">
-        <v>7498.84</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +706,7 @@
       <c r="B22" t="n">
         <v>16001.67</v>
       </c>
-      <c r="C22" t="n">
-        <v>16011.47</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +717,7 @@
       <c r="B23" t="n">
         <v>1849616.67</v>
       </c>
-      <c r="C23" t="n">
-        <v>1848703.78</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +728,7 @@
       <c r="B24" t="n">
         <v>2056160.31</v>
       </c>
-      <c r="C24" t="n">
-        <v>2057737.32</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +739,7 @@
       <c r="B25" t="n">
         <v>697652.6899999999</v>
       </c>
-      <c r="C25" t="n">
-        <v>697857.3</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +750,7 @@
       <c r="B26" t="n">
         <v>837093.1</v>
       </c>
-      <c r="C26" t="n">
-        <v>857810.35</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +761,7 @@
       <c r="B27" t="n">
         <v>823407.99</v>
       </c>
-      <c r="C27" t="n">
-        <v>841844.76</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -792,9 +772,7 @@
       <c r="B28" t="n">
         <v>1343412.19</v>
       </c>
-      <c r="C28" t="n">
-        <v>1459212.93</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -961,9 +939,7 @@
       <c r="B41" t="n">
         <v>323614.49</v>
       </c>
-      <c r="C41" t="n">
-        <v>323961.47</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1105,7 +1081,7 @@
         <v>863136.74</v>
       </c>
       <c r="C52" t="n">
-        <v>875012.78</v>
+        <v>846907.1800000001</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1094,7 @@
         <v>43156837.09</v>
       </c>
       <c r="C53" t="n">
-        <v>43750639.11</v>
+        <v>32182472.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>579804.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615125.1800000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>772192.21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>792659.6899999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>792233.4300000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>743268.22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>720092.34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>641682.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>622514.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>622931.58</v>
+      </c>
+      <c r="L2" t="n">
+        <v>520959.57</v>
+      </c>
+      <c r="M2" t="n">
         <v>473310.12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>486514.72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>498803.16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>486780.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>557868.5600000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>557895.21</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1125849.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1125857.31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1163971.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1222595.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1174987.19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1197916.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1164135.05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1157915.09</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1157907.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1190478.65</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1156546.05</v>
+      </c>
+      <c r="M3" t="n">
         <v>1246591.88</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1210674.44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1242488.8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1236656.71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1235677.19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1268252.91</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>117739.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>127982.88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>150987.92</v>
+      </c>
+      <c r="E4" t="n">
+        <v>150941.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150719.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>150819.77</v>
+      </c>
+      <c r="H4" t="n">
+        <v>150839.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150896.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>150513.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>150712.42</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150780.51</v>
+      </c>
+      <c r="M4" t="n">
         <v>150986.86</v>
-      </c>
-      <c r="C4" t="n">
-        <v>150745.62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>154795.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>150743.64</v>
-      </c>
-      <c r="F4" t="n">
-        <v>150863.25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150878.9</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>212982.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>212925.38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>213079.68</v>
+      </c>
+      <c r="E5" t="n">
+        <v>246653.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>246694.33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>246559.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>246556.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>246484.07</v>
+      </c>
+      <c r="J5" t="n">
+        <v>246559.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>249024.22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>249013.38</v>
+      </c>
+      <c r="M5" t="n">
         <v>249033.22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>249121.91</v>
-      </c>
-      <c r="D5" t="n">
-        <v>255492.01</v>
-      </c>
-      <c r="E5" t="n">
-        <v>249196.29</v>
-      </c>
-      <c r="F5" t="n">
-        <v>304827.45</v>
-      </c>
-      <c r="G5" t="n">
-        <v>331775.63</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>505817.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>505965.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>531905.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>531809.6800000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>531955.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>531932.14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>534881.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>531420.83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>531628.42</v>
+      </c>
+      <c r="K6" t="n">
+        <v>531868.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>531479.92</v>
+      </c>
+      <c r="M6" t="n">
         <v>531378.1800000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>532008.47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>545141.22</v>
-      </c>
-      <c r="E6" t="n">
-        <v>531994.8199999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>531232.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>531548.67</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1247657.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1248017.56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1271450.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1272494.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1273198.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1271329.34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1279875.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1273012.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1271792.54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1169079.58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1064165.57</v>
+      </c>
+      <c r="M7" t="n">
         <v>1064183.44</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1064502.38</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1091452.82</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1065249.62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1065264.95</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1065317.56</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>487183.81</v>
+      </c>
+      <c r="C8" t="n">
+        <v>542205.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>606386.45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>605949.85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>606295.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>640347.52</v>
+      </c>
+      <c r="H8" t="n">
+        <v>643782.35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>640319.09</v>
+      </c>
+      <c r="J8" t="n">
+        <v>640229.26</v>
+      </c>
+      <c r="K8" t="n">
+        <v>640337.5699999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>640687.1899999999</v>
+      </c>
+      <c r="M8" t="n">
         <v>640678.42</v>
-      </c>
-      <c r="C8" t="n">
-        <v>640150.26</v>
-      </c>
-      <c r="D8" t="n">
-        <v>657152.33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>640448.24</v>
-      </c>
-      <c r="F8" t="n">
-        <v>640655.49</v>
-      </c>
-      <c r="G8" t="n">
-        <v>640345.48</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>26848.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26952.41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26951.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26923.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26957.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26886.39</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27041.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26909.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26954.56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22138.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22197.79</v>
+      </c>
+      <c r="M9" t="n">
         <v>22169.11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22168.55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22747.61</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22247.33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22163.36</v>
-      </c>
-      <c r="G9" t="n">
-        <v>22161.77</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>898923.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>901326.49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>895536.58</v>
+      </c>
+      <c r="E10" t="n">
+        <v>897059.13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>897418.8199999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>900481.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>900520.3199999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>899076.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>901230.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>898985.15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>896680.8</v>
+      </c>
+      <c r="M10" t="n">
         <v>898778.41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>897386.3100000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>922557.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>899949.65</v>
-      </c>
-      <c r="F10" t="n">
-        <v>900872.34</v>
-      </c>
-      <c r="G10" t="n">
-        <v>906121.4300000001</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>37353.64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37364.61</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37329.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37390.46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37330.72</v>
+      </c>
+      <c r="G11" t="n">
+        <v>37280.04</v>
+      </c>
+      <c r="H11" t="n">
+        <v>37539.37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37295.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37256.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4468.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4473.84</v>
+      </c>
+      <c r="M11" t="n">
         <v>4471.02</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4472.72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4585.84</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4466.37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4471.19</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4469.27</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>11805.46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11801.98</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11795.95</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11806.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11550.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11551.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11612.59</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11555.65</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11552.82</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11547.66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11549.06</v>
+      </c>
+      <c r="M12" t="n">
         <v>11556.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11545.93</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11843.07</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11550.09</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11554.57</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11544</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>28991.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29005.93</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28982.03</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29023.42</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29004.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29041.68</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29191.55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29011.36</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29003.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>29009.56</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28976.23</v>
+      </c>
+      <c r="M13" t="n">
         <v>29026.27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29011.76</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29772.02</v>
-      </c>
-      <c r="E13" t="n">
-        <v>29044.99</v>
-      </c>
-      <c r="F13" t="n">
-        <v>29017.76</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28999</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1092459.64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1092300.83</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1144575.52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1144496.64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1156834.25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1175816.31</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1191588.98</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1172593.39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1151784.11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1151349.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1112476.14</v>
+      </c>
+      <c r="M14" t="n">
         <v>1112113.93</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1111747.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1087691.22</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1056372.15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1066488.46</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1081441.71</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>234651.57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>255256.87</v>
+      </c>
+      <c r="D15" t="n">
+        <v>264621.23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>275529.11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>285935.51</v>
+      </c>
+      <c r="G15" t="n">
+        <v>285762.22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>298164.31</v>
+      </c>
+      <c r="I15" t="n">
+        <v>296580.92</v>
+      </c>
+      <c r="J15" t="n">
+        <v>296537.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>296714.39</v>
+      </c>
+      <c r="L15" t="n">
+        <v>283517.04</v>
+      </c>
+      <c r="M15" t="n">
         <v>283507.24</v>
-      </c>
-      <c r="C15" t="n">
-        <v>283485.69</v>
-      </c>
-      <c r="D15" t="n">
-        <v>290591.16</v>
-      </c>
-      <c r="E15" t="n">
-        <v>283275.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>283455.68</v>
-      </c>
-      <c r="G15" t="n">
-        <v>283441.01</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>540524.3100000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>507065.21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>507478.91</v>
+      </c>
+      <c r="E16" t="n">
+        <v>507595.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>507056.67</v>
+      </c>
+      <c r="G16" t="n">
+        <v>507308.53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>509756.51</v>
+      </c>
+      <c r="I16" t="n">
+        <v>507127.61</v>
+      </c>
+      <c r="J16" t="n">
+        <v>507208.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>507186.53</v>
+      </c>
+      <c r="L16" t="n">
+        <v>507002.14</v>
+      </c>
+      <c r="M16" t="n">
         <v>507123.02</v>
-      </c>
-      <c r="C16" t="n">
-        <v>507048.78</v>
-      </c>
-      <c r="D16" t="n">
-        <v>520478.85</v>
-      </c>
-      <c r="E16" t="n">
-        <v>507409.68</v>
-      </c>
-      <c r="F16" t="n">
-        <v>507357.57</v>
-      </c>
-      <c r="G16" t="n">
-        <v>507579.69</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>2111027.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2090732.48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2073867.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2049802.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2034293.64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2013829.13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2006640.74</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1990822.32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1972075.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1961067.67</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1955115.51</v>
+      </c>
+      <c r="M17" t="n">
         <v>1953302.67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1948135.11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1988055.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1927424.75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1927564.24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1925178.64</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1190,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>2224279.86</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2224896.98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2224481.37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2225272.96</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2226404.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2237564.42</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2226040.84</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2181563.79</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2180489.86</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2181904.79</v>
+      </c>
+      <c r="M18" t="n">
         <v>2082781.91</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2082279.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2134292.45</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2081856.84</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2081964.03</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2081351.22</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1231,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>995074.59</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>841089.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>841878.96</v>
+      </c>
+      <c r="F19" t="n">
+        <v>841118.63</v>
+      </c>
+      <c r="G19" t="n">
+        <v>841006.4300000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>845813.42</v>
+      </c>
+      <c r="I19" t="n">
+        <v>841524.6800000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>841628.66</v>
+      </c>
+      <c r="K19" t="n">
+        <v>841746.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>841588.16</v>
+      </c>
+      <c r="M19" t="n">
         <v>841323.38</v>
-      </c>
-      <c r="C19" t="n">
-        <v>751477.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>770558.3199999999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>751168.49</v>
-      </c>
-      <c r="F19" t="n">
-        <v>751578.58</v>
-      </c>
-      <c r="G19" t="n">
-        <v>751281.02</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1272,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>237529.61</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>237314.94</v>
+      </c>
+      <c r="E20" t="n">
+        <v>237388.92</v>
+      </c>
+      <c r="F20" t="n">
+        <v>237333.48</v>
+      </c>
+      <c r="G20" t="n">
+        <v>237594.81</v>
+      </c>
+      <c r="H20" t="n">
+        <v>237375.61</v>
+      </c>
+      <c r="I20" t="n">
+        <v>237320.81</v>
+      </c>
+      <c r="J20" t="n">
+        <v>237590.16</v>
+      </c>
+      <c r="K20" t="n">
+        <v>237180.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>237277.84</v>
+      </c>
+      <c r="M20" t="n">
         <v>187404.07</v>
-      </c>
-      <c r="C20" t="n">
-        <v>187557.45</v>
-      </c>
-      <c r="D20" t="n">
-        <v>192441.71</v>
-      </c>
-      <c r="E20" t="n">
-        <v>187441.05</v>
-      </c>
-      <c r="F20" t="n">
-        <v>191059.38</v>
-      </c>
-      <c r="G20" t="n">
-        <v>244495.81</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1313,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>7507.43</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>7491.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7496.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7498.45</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7502.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7510.74</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7491.54</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7511.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7502.17</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7505.24</v>
+      </c>
+      <c r="M21" t="n">
         <v>7508.64</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7492.03</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7691.02</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7507.94</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7493.89</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7505.75</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1354,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>16001.67</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>16012.77</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16014.77</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15988.85</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16000.03</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16005.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15999.59</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15985.94</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15984.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>15996.62</v>
+      </c>
+      <c r="M22" t="n">
         <v>15985.67</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15987.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>16415.13</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15986.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16002.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16006.62</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1395,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1849616.67</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1753381.46</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1752994.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1722659.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1675565.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1676274.92</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1675888.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1675920.65</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1644923.24</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1477622.2</v>
+      </c>
+      <c r="M23" t="n">
         <v>1377330.13</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1376998.38</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1413139.28</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1377401.17</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1376893.13</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1413163.2</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1436,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>2056160.31</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>2025925.45</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1989513.23</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1990214.25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1988907.37</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1990492.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1989878.93</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1990329.51</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1990007.09</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1991094.69</v>
+      </c>
+      <c r="M24" t="n">
         <v>1889967.69</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1890826.85</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1938562.91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1890481.27</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1890815.08</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1925273.37</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1477,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>697652.6899999999</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>698312.97</v>
+      </c>
+      <c r="E25" t="n">
+        <v>697364.42</v>
+      </c>
+      <c r="F25" t="n">
+        <v>699070.84</v>
+      </c>
+      <c r="G25" t="n">
+        <v>697023.74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>698232.0600000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>698094.12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>698505.6800000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>610882.37</v>
+      </c>
+      <c r="L25" t="n">
+        <v>609303.12</v>
+      </c>
+      <c r="M25" t="n">
         <v>609084.29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>610332.3199999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>626977.42</v>
-      </c>
-      <c r="E25" t="n">
-        <v>610263.91</v>
-      </c>
-      <c r="F25" t="n">
-        <v>610786.52</v>
-      </c>
-      <c r="G25" t="n">
-        <v>610096.02</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1518,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>837093.1</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>836625.3199999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>910809.39</v>
+      </c>
+      <c r="F26" t="n">
+        <v>948613.51</v>
+      </c>
+      <c r="G26" t="n">
+        <v>938789.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>958670.87</v>
+      </c>
+      <c r="I26" t="n">
+        <v>901085.1899999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>843868.28</v>
+      </c>
+      <c r="K26" t="n">
+        <v>791433.98</v>
+      </c>
+      <c r="L26" t="n">
+        <v>769269.48</v>
+      </c>
+      <c r="M26" t="n">
         <v>769197.47</v>
-      </c>
-      <c r="C26" t="n">
-        <v>764804.85</v>
-      </c>
-      <c r="D26" t="n">
-        <v>784580.72</v>
-      </c>
-      <c r="E26" t="n">
-        <v>799625</v>
-      </c>
-      <c r="F26" t="n">
-        <v>947542.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>976879.2</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1559,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>823407.99</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>860303.14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>871428.04</v>
+      </c>
+      <c r="F27" t="n">
+        <v>874369.03</v>
+      </c>
+      <c r="G27" t="n">
+        <v>864997.36</v>
+      </c>
+      <c r="H27" t="n">
+        <v>869552.95</v>
+      </c>
+      <c r="I27" t="n">
+        <v>852779.51</v>
+      </c>
+      <c r="J27" t="n">
+        <v>791554.28</v>
+      </c>
+      <c r="K27" t="n">
+        <v>739711.36</v>
+      </c>
+      <c r="L27" t="n">
+        <v>730718.5</v>
+      </c>
+      <c r="M27" t="n">
         <v>731818.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>721931.1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>740585.33</v>
-      </c>
-      <c r="E27" t="n">
-        <v>796322.17</v>
-      </c>
-      <c r="F27" t="n">
-        <v>891085.97</v>
-      </c>
-      <c r="G27" t="n">
-        <v>911886.24</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1600,38 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>1343412.19</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1354064</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1467997.03</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1458433.54</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1459627.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1460812.27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1455599.45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1427709.71</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1422071.89</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1392491.7</v>
+      </c>
+      <c r="M28" t="n">
         <v>1355944.14</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1355836.46</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1392048.76</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1363810.86</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1434693.43</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1514597.34</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1641,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>622840.87</v>
+      </c>
+      <c r="C29" t="n">
+        <v>652445.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>663111.13</v>
+      </c>
+      <c r="E29" t="n">
+        <v>700544.55</v>
+      </c>
+      <c r="F29" t="n">
+        <v>705883.8100000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>706876.12</v>
+      </c>
+      <c r="H29" t="n">
+        <v>705674.21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>706252</v>
+      </c>
+      <c r="J29" t="n">
+        <v>705635.77</v>
+      </c>
+      <c r="K29" t="n">
+        <v>706489.34</v>
+      </c>
+      <c r="L29" t="n">
+        <v>696162.4</v>
+      </c>
+      <c r="M29" t="n">
         <v>695684.49</v>
-      </c>
-      <c r="C29" t="n">
-        <v>677483.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>694969.85</v>
-      </c>
-      <c r="E29" t="n">
-        <v>658578.09</v>
-      </c>
-      <c r="F29" t="n">
-        <v>667950.29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>654952.02</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1684,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>99230.78999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>98788.89</v>
+      </c>
+      <c r="D30" t="n">
+        <v>99016.11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>99140.42</v>
+      </c>
+      <c r="F30" t="n">
+        <v>98947.08</v>
+      </c>
+      <c r="G30" t="n">
+        <v>98921.24000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>99464.16</v>
+      </c>
+      <c r="I30" t="n">
+        <v>98936.82000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>98934.77</v>
+      </c>
+      <c r="K30" t="n">
+        <v>98865.98</v>
+      </c>
+      <c r="L30" t="n">
+        <v>99096.11</v>
+      </c>
+      <c r="M30" t="n">
         <v>99071.84</v>
-      </c>
-      <c r="C30" t="n">
-        <v>99238.05</v>
-      </c>
-      <c r="D30" t="n">
-        <v>101555.71</v>
-      </c>
-      <c r="E30" t="n">
-        <v>99180.02</v>
-      </c>
-      <c r="F30" t="n">
-        <v>99135.36</v>
-      </c>
-      <c r="G30" t="n">
-        <v>99257.95</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1727,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>6080452.74</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6197094.41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6201618.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6202107.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6600562.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6801882.53</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6798202.69</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6798921.76</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6798636.06</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6800246.97</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6799236.28</v>
+      </c>
+      <c r="M31" t="n">
         <v>6799397.29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6801962.73</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6976537.68</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6800230.63</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6601328.92</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6598156.63</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1770,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>132530.34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>132550.47</v>
+      </c>
+      <c r="D32" t="n">
+        <v>117493.02</v>
+      </c>
+      <c r="E32" t="n">
+        <v>117659.12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>117488.55</v>
+      </c>
+      <c r="G32" t="n">
+        <v>117594.13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>118300.97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>117520.18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>117558.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>117636.29</v>
+      </c>
+      <c r="L32" t="n">
+        <v>117634.45</v>
+      </c>
+      <c r="M32" t="n">
         <v>117593.97</v>
-      </c>
-      <c r="C32" t="n">
-        <v>117588.45</v>
-      </c>
-      <c r="D32" t="n">
-        <v>120694.41</v>
-      </c>
-      <c r="E32" t="n">
-        <v>117642.28</v>
-      </c>
-      <c r="F32" t="n">
-        <v>117505.33</v>
-      </c>
-      <c r="G32" t="n">
-        <v>117588</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1813,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>24222.87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24177.25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24203.87</v>
+      </c>
+      <c r="E33" t="n">
+        <v>24184.32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24214.73</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24216.45</v>
+      </c>
+      <c r="H33" t="n">
+        <v>24317.57</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24220.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>24190.32</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24228.85</v>
+      </c>
+      <c r="L33" t="n">
+        <v>24215.09</v>
+      </c>
+      <c r="M33" t="n">
         <v>24186.65</v>
-      </c>
-      <c r="C33" t="n">
-        <v>24174.05</v>
-      </c>
-      <c r="D33" t="n">
-        <v>24795.77</v>
-      </c>
-      <c r="E33" t="n">
-        <v>24171.41</v>
-      </c>
-      <c r="F33" t="n">
-        <v>24188.11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>24190.84</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1856,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>501205.92</v>
+      </c>
+      <c r="C34" t="n">
+        <v>491351.58</v>
+      </c>
+      <c r="D34" t="n">
+        <v>490835.65</v>
+      </c>
+      <c r="E34" t="n">
+        <v>491124.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>476081.62</v>
+      </c>
+      <c r="G34" t="n">
+        <v>465820.73</v>
+      </c>
+      <c r="H34" t="n">
+        <v>468496.22</v>
+      </c>
+      <c r="I34" t="n">
+        <v>405823.27</v>
+      </c>
+      <c r="J34" t="n">
+        <v>400863.12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>380931.66</v>
+      </c>
+      <c r="L34" t="n">
+        <v>340905.82</v>
+      </c>
+      <c r="M34" t="n">
         <v>341076.03</v>
-      </c>
-      <c r="C34" t="n">
-        <v>329037.62</v>
-      </c>
-      <c r="D34" t="n">
-        <v>337681.13</v>
-      </c>
-      <c r="E34" t="n">
-        <v>319313.82</v>
-      </c>
-      <c r="F34" t="n">
-        <v>319234.87</v>
-      </c>
-      <c r="G34" t="n">
-        <v>303888.06</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1899,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>890426.16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>891680.0600000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>861459.89</v>
+      </c>
+      <c r="E35" t="n">
+        <v>860911.38</v>
+      </c>
+      <c r="F35" t="n">
+        <v>861172.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>861219.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>865147.42</v>
+      </c>
+      <c r="I35" t="n">
+        <v>861225.48</v>
+      </c>
+      <c r="J35" t="n">
+        <v>861331.6899999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>846211.5699999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>785417.5600000001</v>
+      </c>
+      <c r="M35" t="n">
         <v>786283.78</v>
-      </c>
-      <c r="C35" t="n">
-        <v>760761.24</v>
-      </c>
-      <c r="D35" t="n">
-        <v>781042.08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>760787.9399999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>760946.08</v>
-      </c>
-      <c r="G35" t="n">
-        <v>791324.37</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1942,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>120674.03</v>
+      </c>
+      <c r="C36" t="n">
+        <v>126296.71</v>
+      </c>
+      <c r="D36" t="n">
+        <v>162432.58</v>
+      </c>
+      <c r="E36" t="n">
+        <v>170074.75</v>
+      </c>
+      <c r="F36" t="n">
+        <v>168438.82</v>
+      </c>
+      <c r="G36" t="n">
+        <v>168228.33</v>
+      </c>
+      <c r="H36" t="n">
+        <v>200887.38</v>
+      </c>
+      <c r="I36" t="n">
+        <v>200218.76</v>
+      </c>
+      <c r="J36" t="n">
+        <v>200006.39</v>
+      </c>
+      <c r="K36" t="n">
+        <v>200118.72</v>
+      </c>
+      <c r="L36" t="n">
+        <v>198729.14</v>
+      </c>
+      <c r="M36" t="n">
         <v>175042.79</v>
-      </c>
-      <c r="C36" t="n">
-        <v>175229.56</v>
-      </c>
-      <c r="D36" t="n">
-        <v>174620.83</v>
-      </c>
-      <c r="E36" t="n">
-        <v>168448.62</v>
-      </c>
-      <c r="F36" t="n">
-        <v>171498.15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>181777.52</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1985,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>35433.55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35438.87</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40033.85</v>
+      </c>
+      <c r="E37" t="n">
+        <v>40045.81</v>
+      </c>
+      <c r="F37" t="n">
+        <v>40042.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>40041.13</v>
+      </c>
+      <c r="H37" t="n">
+        <v>40281.54</v>
+      </c>
+      <c r="I37" t="n">
+        <v>40068.79</v>
+      </c>
+      <c r="J37" t="n">
+        <v>40065.53</v>
+      </c>
+      <c r="K37" t="n">
+        <v>40058.95</v>
+      </c>
+      <c r="L37" t="n">
+        <v>40057.49</v>
+      </c>
+      <c r="M37" t="n">
         <v>40058</v>
-      </c>
-      <c r="C37" t="n">
-        <v>39040.99</v>
-      </c>
-      <c r="D37" t="n">
-        <v>40053.68</v>
-      </c>
-      <c r="E37" t="n">
-        <v>39050.42</v>
-      </c>
-      <c r="F37" t="n">
-        <v>39036.14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>39050.54</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2028,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>146018.28</v>
+      </c>
+      <c r="C38" t="n">
+        <v>168968.18</v>
+      </c>
+      <c r="D38" t="n">
+        <v>188028.03</v>
+      </c>
+      <c r="E38" t="n">
+        <v>204519.79</v>
+      </c>
+      <c r="F38" t="n">
+        <v>204970.33</v>
+      </c>
+      <c r="G38" t="n">
+        <v>204861.99</v>
+      </c>
+      <c r="H38" t="n">
+        <v>204992.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>217941.59</v>
+      </c>
+      <c r="J38" t="n">
+        <v>213458.21</v>
+      </c>
+      <c r="K38" t="n">
+        <v>195637.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>187845.1</v>
+      </c>
+      <c r="M38" t="n">
         <v>187546.69</v>
-      </c>
-      <c r="C38" t="n">
-        <v>187784.69</v>
-      </c>
-      <c r="D38" t="n">
-        <v>192412.48</v>
-      </c>
-      <c r="E38" t="n">
-        <v>191399.66</v>
-      </c>
-      <c r="F38" t="n">
-        <v>191345.13</v>
-      </c>
-      <c r="G38" t="n">
-        <v>196872.31</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2071,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>101939.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>102030.77</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101929.08</v>
+      </c>
+      <c r="E39" t="n">
+        <v>101804.28</v>
+      </c>
+      <c r="F39" t="n">
+        <v>101800.12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>101872.38</v>
+      </c>
+      <c r="H39" t="n">
+        <v>102401.15</v>
+      </c>
+      <c r="I39" t="n">
+        <v>101990.42</v>
+      </c>
+      <c r="J39" t="n">
+        <v>101805.83</v>
+      </c>
+      <c r="K39" t="n">
+        <v>102029.67</v>
+      </c>
+      <c r="L39" t="n">
+        <v>101943.12</v>
+      </c>
+      <c r="M39" t="n">
         <v>101884.54</v>
-      </c>
-      <c r="C39" t="n">
-        <v>101999.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>104451.28</v>
-      </c>
-      <c r="E39" t="n">
-        <v>101933.27</v>
-      </c>
-      <c r="F39" t="n">
-        <v>102046.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>102020.23</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2114,40 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>109322.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>109287.81</v>
+      </c>
+      <c r="D40" t="n">
+        <v>109371.86</v>
+      </c>
+      <c r="E40" t="n">
+        <v>109364.71</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91858.89</v>
+      </c>
+      <c r="G40" t="n">
+        <v>91903.97</v>
+      </c>
+      <c r="H40" t="n">
+        <v>92270.13</v>
+      </c>
+      <c r="I40" t="n">
+        <v>91726</v>
+      </c>
+      <c r="J40" t="n">
+        <v>91832.77</v>
+      </c>
+      <c r="K40" t="n">
+        <v>91901.16</v>
+      </c>
+      <c r="L40" t="n">
+        <v>91747.39999999999</v>
+      </c>
+      <c r="M40" t="n">
         <v>91839.47</v>
-      </c>
-      <c r="C40" t="n">
-        <v>101865.68</v>
-      </c>
-      <c r="D40" t="n">
-        <v>113563.23</v>
-      </c>
-      <c r="E40" t="n">
-        <v>121843.83</v>
-      </c>
-      <c r="F40" t="n">
-        <v>121901.81</v>
-      </c>
-      <c r="G40" t="n">
-        <v>121732.5</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2157,38 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>323614.49</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>323843.43</v>
+      </c>
+      <c r="E41" t="n">
+        <v>324182.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>368893.54</v>
+      </c>
+      <c r="G41" t="n">
+        <v>386689.22</v>
+      </c>
+      <c r="H41" t="n">
+        <v>388604.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>386515.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>387210.81</v>
+      </c>
+      <c r="K41" t="n">
+        <v>386960.18</v>
+      </c>
+      <c r="L41" t="n">
+        <v>387117.06</v>
+      </c>
+      <c r="M41" t="n">
         <v>387037.32</v>
-      </c>
-      <c r="C41" t="n">
-        <v>386807.99</v>
-      </c>
-      <c r="D41" t="n">
-        <v>396875.79</v>
-      </c>
-      <c r="E41" t="n">
-        <v>387038.74</v>
-      </c>
-      <c r="F41" t="n">
-        <v>386533.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>386692.88</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2198,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>752391.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>752047.52</v>
+      </c>
+      <c r="D42" t="n">
+        <v>751660.05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>751793.21</v>
+      </c>
+      <c r="F42" t="n">
+        <v>751774.42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>752201.99</v>
+      </c>
+      <c r="H42" t="n">
+        <v>756271.4300000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>751718.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>752014.3100000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>752019.62</v>
+      </c>
+      <c r="L42" t="n">
+        <v>751657.89</v>
+      </c>
+      <c r="M42" t="n">
         <v>751953.34</v>
-      </c>
-      <c r="C42" t="n">
-        <v>751949.62</v>
-      </c>
-      <c r="D42" t="n">
-        <v>771519.66</v>
-      </c>
-      <c r="E42" t="n">
-        <v>752195.0600000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>751563.48</v>
-      </c>
-      <c r="G42" t="n">
-        <v>752010.67</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2241,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>182433.71</v>
+      </c>
+      <c r="C43" t="n">
+        <v>222467.76</v>
+      </c>
+      <c r="D43" t="n">
+        <v>222205.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>229263.64</v>
+      </c>
+      <c r="F43" t="n">
+        <v>229302.26</v>
+      </c>
+      <c r="G43" t="n">
+        <v>229455.68</v>
+      </c>
+      <c r="H43" t="n">
+        <v>230550.27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>229505.01</v>
+      </c>
+      <c r="J43" t="n">
+        <v>241478.04</v>
+      </c>
+      <c r="K43" t="n">
+        <v>226248.14</v>
+      </c>
+      <c r="L43" t="n">
+        <v>246941.65</v>
+      </c>
+      <c r="M43" t="n">
         <v>246827.82</v>
-      </c>
-      <c r="C43" t="n">
-        <v>301862.86</v>
-      </c>
-      <c r="D43" t="n">
-        <v>309739.84</v>
-      </c>
-      <c r="E43" t="n">
-        <v>301719.59</v>
-      </c>
-      <c r="F43" t="n">
-        <v>307824.35</v>
-      </c>
-      <c r="G43" t="n">
-        <v>337866.24</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2284,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>352786.47</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352905.89</v>
+      </c>
+      <c r="D44" t="n">
+        <v>352466.23</v>
+      </c>
+      <c r="E44" t="n">
+        <v>352832.77</v>
+      </c>
+      <c r="F44" t="n">
+        <v>352546.42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>352607.96</v>
+      </c>
+      <c r="H44" t="n">
+        <v>354091.77</v>
+      </c>
+      <c r="I44" t="n">
+        <v>352509.86</v>
+      </c>
+      <c r="J44" t="n">
+        <v>352511.08</v>
+      </c>
+      <c r="K44" t="n">
+        <v>352917.97</v>
+      </c>
+      <c r="L44" t="n">
+        <v>352318.42</v>
+      </c>
+      <c r="M44" t="n">
         <v>352265.39</v>
-      </c>
-      <c r="C44" t="n">
-        <v>388418.79</v>
-      </c>
-      <c r="D44" t="n">
-        <v>415376.55</v>
-      </c>
-      <c r="E44" t="n">
-        <v>404453.46</v>
-      </c>
-      <c r="F44" t="n">
-        <v>404420.11</v>
-      </c>
-      <c r="G44" t="n">
-        <v>404654.28</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +2327,40 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>245597.84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245914.59</v>
+      </c>
+      <c r="D45" t="n">
+        <v>231257.93</v>
+      </c>
+      <c r="E45" t="n">
+        <v>227079.28</v>
+      </c>
+      <c r="F45" t="n">
+        <v>245147.22</v>
+      </c>
+      <c r="G45" t="n">
+        <v>247708.88</v>
+      </c>
+      <c r="H45" t="n">
+        <v>249622.66</v>
+      </c>
+      <c r="I45" t="n">
+        <v>248545.87</v>
+      </c>
+      <c r="J45" t="n">
+        <v>248696.97</v>
+      </c>
+      <c r="K45" t="n">
+        <v>248648.52</v>
+      </c>
+      <c r="L45" t="n">
+        <v>248392.08</v>
+      </c>
+      <c r="M45" t="n">
         <v>241655.89</v>
-      </c>
-      <c r="C45" t="n">
-        <v>228931.29</v>
-      </c>
-      <c r="D45" t="n">
-        <v>234797.94</v>
-      </c>
-      <c r="E45" t="n">
-        <v>231466.87</v>
-      </c>
-      <c r="F45" t="n">
-        <v>228404.84</v>
-      </c>
-      <c r="G45" t="n">
-        <v>248624.08</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +2370,40 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>1281351.12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1281210.23</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1280789.03</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1281092.69</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1280926.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1280653.58</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1202953.82</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1219207.66</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1219571.14</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1219621.89</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1167398.1</v>
+      </c>
+      <c r="M46" t="n">
         <v>1167576.43</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1167007.38</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1197502.49</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1168090.86</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1130189.19</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1130251.43</v>
       </c>
     </row>
     <row r="47">
@@ -1597,147 +2413,280 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>2237061.58</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2238299.03</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2236187.14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2317220.52</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2319550.38</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2320132.33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2325697.34</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2308989.77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2317972.43</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2318550.52</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2318143.71</v>
+      </c>
+      <c r="M47" t="n">
         <v>2316647.25</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2317755.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2376832.21</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2317340.77</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2318792.9</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2317467.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3755338.8</v>
+        <v>3815299.8</v>
       </c>
       <c r="C48" t="n">
-        <v>3753102.35</v>
+        <v>3981705.87</v>
       </c>
       <c r="D48" t="n">
-        <v>3849961.03</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3751921.26</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3785041.32</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3785841.4</v>
-      </c>
+        <v>4722401.85</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>844109.21</v>
+        <v>3751419.83</v>
       </c>
       <c r="C49" t="n">
-        <v>844431.1800000001</v>
+        <v>3753808.9</v>
       </c>
       <c r="D49" t="n">
-        <v>866394.5</v>
+        <v>3753153.52</v>
       </c>
       <c r="E49" t="n">
-        <v>845554.6899999999</v>
+        <v>3753997.54</v>
       </c>
       <c r="F49" t="n">
-        <v>845737.84</v>
+        <v>3754193.77</v>
       </c>
       <c r="G49" t="n">
-        <v>843840.08</v>
+        <v>3752624.76</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3704500.63</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3754398.73</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3751332.58</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3754488.76</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3752990.07</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3755338.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>149337.82</v>
+        <v>844626.27</v>
       </c>
       <c r="C50" t="n">
-        <v>149333.29</v>
+        <v>844640.45</v>
       </c>
       <c r="D50" t="n">
-        <v>153153.35</v>
+        <v>844230.3</v>
       </c>
       <c r="E50" t="n">
-        <v>149266.76</v>
+        <v>844453</v>
       </c>
       <c r="F50" t="n">
-        <v>149251.44</v>
+        <v>845120.9</v>
       </c>
       <c r="G50" t="n">
-        <v>149311.51</v>
+        <v>845020.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>833747</v>
+      </c>
+      <c r="I50" t="n">
+        <v>843927.35</v>
+      </c>
+      <c r="J50" t="n">
+        <v>845578.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>845471.83</v>
+      </c>
+      <c r="L50" t="n">
+        <v>844480.22</v>
+      </c>
+      <c r="M50" t="n">
+        <v>844109.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>790183.08</v>
+        <v>158599.93</v>
       </c>
       <c r="C51" t="n">
-        <v>788163.47</v>
+        <v>149476.03</v>
       </c>
       <c r="D51" t="n">
-        <v>807662.72</v>
+        <v>149434.39</v>
       </c>
       <c r="E51" t="n">
-        <v>789720.48</v>
+        <v>149441.16</v>
       </c>
       <c r="F51" t="n">
-        <v>795165.83</v>
+        <v>149481.19</v>
       </c>
       <c r="G51" t="n">
-        <v>803201.1800000001</v>
+        <v>149411.65</v>
+      </c>
+      <c r="H51" t="n">
+        <v>150275.77</v>
+      </c>
+      <c r="I51" t="n">
+        <v>149490.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>149496.07</v>
+      </c>
+      <c r="K51" t="n">
+        <v>149320.71</v>
+      </c>
+      <c r="L51" t="n">
+        <v>149435.92</v>
+      </c>
+      <c r="M51" t="n">
+        <v>149337.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>863136.74</v>
+      </c>
+      <c r="C52" t="n">
+        <v>846907.1800000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>889673.85</v>
+      </c>
+      <c r="E52" t="n">
+        <v>819855.8199999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>827988.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>831091.71</v>
+      </c>
+      <c r="H52" t="n">
+        <v>829944.39</v>
+      </c>
+      <c r="I52" t="n">
+        <v>824980.84</v>
+      </c>
+      <c r="J52" t="n">
+        <v>820144.8199999999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>811784.4399999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>797801.1899999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>790183.08</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B53" t="n">
+        <v>43156837.09</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32182472.69</v>
+      </c>
+      <c r="D53" t="n">
+        <v>44483692.29</v>
+      </c>
+      <c r="E53" t="n">
+        <v>40172935.21</v>
+      </c>
+      <c r="F53" t="n">
+        <v>40571436.58</v>
+      </c>
+      <c r="G53" t="n">
+        <v>40723493.96</v>
+      </c>
+      <c r="H53" t="n">
+        <v>40667275.06</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40424061.24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>40187096.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>39777437.71</v>
+      </c>
+      <c r="L53" t="n">
+        <v>39092258.16</v>
+      </c>
+      <c r="M53" t="n">
         <v>38718970.69</v>
-      </c>
-      <c r="C52" t="n">
-        <v>38620010</v>
-      </c>
-      <c r="D52" t="n">
-        <v>39575473.35</v>
-      </c>
-      <c r="E52" t="n">
-        <v>38696303.34</v>
-      </c>
-      <c r="F52" t="n">
-        <v>38963125.55</v>
-      </c>
-      <c r="G52" t="n">
-        <v>39356857.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579804.47</v>
+        <v>473310.12</v>
       </c>
       <c r="C2" t="n">
-        <v>615125.1800000001</v>
+        <v>486514.72</v>
       </c>
       <c r="D2" t="n">
-        <v>772192.21</v>
+        <v>498803.16</v>
       </c>
       <c r="E2" t="n">
-        <v>792659.6899999999</v>
+        <v>486780.83</v>
       </c>
       <c r="F2" t="n">
-        <v>792233.4300000001</v>
+        <v>557868.5600000001</v>
       </c>
       <c r="G2" t="n">
-        <v>743268.22</v>
+        <v>557895.21</v>
       </c>
       <c r="H2" t="n">
-        <v>720092.34</v>
+        <v>557611.6800000001</v>
       </c>
       <c r="I2" t="n">
-        <v>641682.17</v>
+        <v>521388</v>
       </c>
       <c r="J2" t="n">
-        <v>622514.28</v>
+        <v>602460.45</v>
       </c>
       <c r="K2" t="n">
-        <v>622931.58</v>
+        <v>603126.97</v>
       </c>
       <c r="L2" t="n">
-        <v>520959.57</v>
+        <v>602868.47</v>
       </c>
       <c r="M2" t="n">
-        <v>473310.12</v>
+        <v>616833.36</v>
+      </c>
+      <c r="N2" t="n">
+        <v>671714.95</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706397.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>754401.66</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>769207.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>769826.8199999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>782051.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>782555.91</v>
+      </c>
+      <c r="U2" t="n">
+        <v>742290.62</v>
+      </c>
+      <c r="V2" t="n">
+        <v>923614.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>943300.26</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1067050.33</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1026907.02</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>959222.01</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>905794.99</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1125849.18</v>
+        <v>1246591.88</v>
       </c>
       <c r="C3" t="n">
-        <v>1125857.31</v>
+        <v>1210674.44</v>
       </c>
       <c r="D3" t="n">
-        <v>1163971.12</v>
+        <v>1242488.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1222595.49</v>
+        <v>1236656.71</v>
       </c>
       <c r="F3" t="n">
-        <v>1174987.19</v>
+        <v>1235677.19</v>
       </c>
       <c r="G3" t="n">
-        <v>1197916.35</v>
+        <v>1268252.91</v>
       </c>
       <c r="H3" t="n">
-        <v>1164135.05</v>
+        <v>1290402.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1157915.09</v>
+        <v>1291036.23</v>
       </c>
       <c r="J3" t="n">
-        <v>1157907.06</v>
+        <v>1362464.49</v>
       </c>
       <c r="K3" t="n">
-        <v>1190478.65</v>
+        <v>1384760.31</v>
       </c>
       <c r="L3" t="n">
-        <v>1156546.05</v>
+        <v>1304784.15</v>
       </c>
       <c r="M3" t="n">
-        <v>1246591.88</v>
+        <v>1281302.85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1354598.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1353778.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1352963.41</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1414792.43</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1416733.71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1443487.77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1442765.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1449184.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1450030.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1472994.12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1547812.24</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1509218.13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1553824.06</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1512455.67</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117739.51</v>
+        <v>150986.86</v>
       </c>
       <c r="C4" t="n">
-        <v>127982.88</v>
+        <v>150745.62</v>
       </c>
       <c r="D4" t="n">
-        <v>150987.92</v>
+        <v>154795.5</v>
       </c>
       <c r="E4" t="n">
-        <v>150941.97</v>
+        <v>150743.64</v>
       </c>
       <c r="F4" t="n">
-        <v>150719.65</v>
+        <v>150863.25</v>
       </c>
       <c r="G4" t="n">
-        <v>150819.77</v>
+        <v>150878.9</v>
       </c>
       <c r="H4" t="n">
-        <v>150839.67</v>
+        <v>151000.27</v>
       </c>
       <c r="I4" t="n">
-        <v>150896.76</v>
+        <v>150740.72</v>
       </c>
       <c r="J4" t="n">
-        <v>150513.4</v>
+        <v>150808.33</v>
       </c>
       <c r="K4" t="n">
-        <v>150712.42</v>
+        <v>150839.77</v>
       </c>
       <c r="L4" t="n">
-        <v>150780.51</v>
+        <v>172941.87</v>
       </c>
       <c r="M4" t="n">
-        <v>150986.86</v>
+        <v>171257.68</v>
+      </c>
+      <c r="N4" t="n">
+        <v>173700.78</v>
+      </c>
+      <c r="O4" t="n">
+        <v>172340.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>172899.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>172712.66</v>
+      </c>
+      <c r="R4" t="n">
+        <v>172968.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>225027.83</v>
+      </c>
+      <c r="T4" t="n">
+        <v>224849.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>224778.17</v>
+      </c>
+      <c r="V4" t="n">
+        <v>258274.82</v>
+      </c>
+      <c r="W4" t="n">
+        <v>257687.47</v>
+      </c>
+      <c r="X4" t="n">
+        <v>257890.27</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>315956.02</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>315989.31</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>315657.85</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212982.03</v>
+        <v>249033.22</v>
       </c>
       <c r="C5" t="n">
-        <v>212925.38</v>
+        <v>249121.91</v>
       </c>
       <c r="D5" t="n">
-        <v>213079.68</v>
+        <v>255492.01</v>
       </c>
       <c r="E5" t="n">
-        <v>246653.06</v>
+        <v>249196.29</v>
       </c>
       <c r="F5" t="n">
-        <v>246694.33</v>
+        <v>304827.45</v>
       </c>
       <c r="G5" t="n">
-        <v>246559.88</v>
+        <v>331775.63</v>
       </c>
       <c r="H5" t="n">
-        <v>246556.89</v>
+        <v>350836.66</v>
       </c>
       <c r="I5" t="n">
-        <v>246484.07</v>
+        <v>342087.64</v>
       </c>
       <c r="J5" t="n">
-        <v>246559.98</v>
+        <v>400059.28</v>
       </c>
       <c r="K5" t="n">
-        <v>249024.22</v>
+        <v>399904.64</v>
       </c>
       <c r="L5" t="n">
-        <v>249013.38</v>
+        <v>410422.81</v>
       </c>
       <c r="M5" t="n">
-        <v>249033.22</v>
+        <v>436719.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>487672.53</v>
+      </c>
+      <c r="O5" t="n">
+        <v>487999.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>487760.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>528930.61</v>
+      </c>
+      <c r="R5" t="n">
+        <v>553631.47</v>
+      </c>
+      <c r="S5" t="n">
+        <v>579035.78</v>
+      </c>
+      <c r="T5" t="n">
+        <v>578739.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>600659.54</v>
+      </c>
+      <c r="V5" t="n">
+        <v>646986.77</v>
+      </c>
+      <c r="W5" t="n">
+        <v>646748.58</v>
+      </c>
+      <c r="X5" t="n">
+        <v>674650.75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>674338.38</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>714904.84</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>723481.23</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505817.74</v>
+        <v>531378.1800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>505965.04</v>
+        <v>532008.47</v>
       </c>
       <c r="D6" t="n">
-        <v>531905.03</v>
+        <v>545141.22</v>
       </c>
       <c r="E6" t="n">
-        <v>531809.6800000001</v>
+        <v>531994.8199999999</v>
       </c>
       <c r="F6" t="n">
-        <v>531955.96</v>
+        <v>531232.8</v>
       </c>
       <c r="G6" t="n">
-        <v>531932.14</v>
+        <v>531548.67</v>
       </c>
       <c r="H6" t="n">
-        <v>534881.4</v>
+        <v>532083.66</v>
       </c>
       <c r="I6" t="n">
-        <v>531420.83</v>
+        <v>531552.92</v>
       </c>
       <c r="J6" t="n">
-        <v>531628.42</v>
+        <v>531282.99</v>
       </c>
       <c r="K6" t="n">
-        <v>531868.25</v>
+        <v>532080.1899999999</v>
       </c>
       <c r="L6" t="n">
-        <v>531479.92</v>
+        <v>531923.25</v>
       </c>
       <c r="M6" t="n">
-        <v>531378.1800000001</v>
+        <v>531709.6800000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>532141.3100000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>531929.74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>532253.92</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>531925.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>531151.87</v>
+      </c>
+      <c r="S6" t="n">
+        <v>621460.74</v>
+      </c>
+      <c r="T6" t="n">
+        <v>618421.79</v>
+      </c>
+      <c r="U6" t="n">
+        <v>620571.13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>621117.17</v>
+      </c>
+      <c r="W6" t="n">
+        <v>621105.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>620956.21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>621000.86</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>620267.9300000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>621734.15</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1247657.65</v>
+        <v>1064183.44</v>
       </c>
       <c r="C7" t="n">
-        <v>1248017.56</v>
+        <v>1064502.38</v>
       </c>
       <c r="D7" t="n">
-        <v>1271450.94</v>
+        <v>1091452.82</v>
       </c>
       <c r="E7" t="n">
-        <v>1272494.6</v>
+        <v>1065249.62</v>
       </c>
       <c r="F7" t="n">
-        <v>1273198.49</v>
+        <v>1065264.95</v>
       </c>
       <c r="G7" t="n">
-        <v>1271329.34</v>
+        <v>1065317.56</v>
       </c>
       <c r="H7" t="n">
-        <v>1279875.03</v>
+        <v>1064623.64</v>
       </c>
       <c r="I7" t="n">
-        <v>1273012.65</v>
+        <v>1063879.82</v>
       </c>
       <c r="J7" t="n">
-        <v>1271792.54</v>
+        <v>1064745.81</v>
       </c>
       <c r="K7" t="n">
-        <v>1169079.58</v>
+        <v>1064504.16</v>
       </c>
       <c r="L7" t="n">
-        <v>1064165.57</v>
+        <v>1064488.53</v>
       </c>
       <c r="M7" t="n">
-        <v>1064183.44</v>
+        <v>1065419.26</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1065406.42</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1064397.06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1065437.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1063755.26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1063664.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1065011.77</v>
+      </c>
+      <c r="T7" t="n">
+        <v>976123.21</v>
+      </c>
+      <c r="U7" t="n">
+        <v>980602.34</v>
+      </c>
+      <c r="V7" t="n">
+        <v>980654.04</v>
+      </c>
+      <c r="W7" t="n">
+        <v>980960.71</v>
+      </c>
+      <c r="X7" t="n">
+        <v>979442.45</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>980287.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>980934.6800000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>980620.83</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487183.81</v>
+        <v>640678.42</v>
       </c>
       <c r="C8" t="n">
-        <v>542205.6</v>
+        <v>640150.26</v>
       </c>
       <c r="D8" t="n">
-        <v>606386.45</v>
+        <v>657152.33</v>
       </c>
       <c r="E8" t="n">
-        <v>605949.85</v>
+        <v>640448.24</v>
       </c>
       <c r="F8" t="n">
-        <v>606295.39</v>
+        <v>640655.49</v>
       </c>
       <c r="G8" t="n">
-        <v>640347.52</v>
+        <v>640345.48</v>
       </c>
       <c r="H8" t="n">
-        <v>643782.35</v>
+        <v>640295.97</v>
       </c>
       <c r="I8" t="n">
-        <v>640319.09</v>
+        <v>640537.79</v>
       </c>
       <c r="J8" t="n">
-        <v>640229.26</v>
+        <v>640336.59</v>
       </c>
       <c r="K8" t="n">
-        <v>640337.5699999999</v>
+        <v>671280.83</v>
       </c>
       <c r="L8" t="n">
-        <v>640687.1899999999</v>
+        <v>671124.99</v>
       </c>
       <c r="M8" t="n">
-        <v>640678.42</v>
+        <v>671041.4399999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>671448.95</v>
+      </c>
+      <c r="O8" t="n">
+        <v>671522.74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>671498.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>670914.0600000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>671238.55</v>
+      </c>
+      <c r="S8" t="n">
+        <v>671052.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>667641.92</v>
+      </c>
+      <c r="U8" t="n">
+        <v>671471.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>670909.46</v>
+      </c>
+      <c r="W8" t="n">
+        <v>671046.66</v>
+      </c>
+      <c r="X8" t="n">
+        <v>671252.71</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>671344.83</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>670969.09</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>671376.05</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26848.79</v>
+        <v>22169.11</v>
       </c>
       <c r="C9" t="n">
-        <v>26952.41</v>
+        <v>22168.55</v>
       </c>
       <c r="D9" t="n">
-        <v>26951.39</v>
+        <v>22747.61</v>
       </c>
       <c r="E9" t="n">
-        <v>26923.28</v>
+        <v>22247.33</v>
       </c>
       <c r="F9" t="n">
-        <v>26957.02</v>
+        <v>22163.36</v>
       </c>
       <c r="G9" t="n">
-        <v>26886.39</v>
+        <v>22161.77</v>
       </c>
       <c r="H9" t="n">
-        <v>27041.92</v>
+        <v>22220.79</v>
       </c>
       <c r="I9" t="n">
-        <v>26909.02</v>
+        <v>22251.96</v>
       </c>
       <c r="J9" t="n">
-        <v>26954.56</v>
+        <v>22229.97</v>
       </c>
       <c r="K9" t="n">
-        <v>22138.2</v>
+        <v>22247.99</v>
       </c>
       <c r="L9" t="n">
-        <v>22197.79</v>
+        <v>22143.46</v>
       </c>
       <c r="M9" t="n">
-        <v>22169.11</v>
+        <v>22233.73</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22139.38</v>
+      </c>
+      <c r="O9" t="n">
+        <v>22214.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>22220.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22239.42</v>
+      </c>
+      <c r="R9" t="n">
+        <v>22192.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>22179.64</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22092.52</v>
+      </c>
+      <c r="U9" t="n">
+        <v>22140.76</v>
+      </c>
+      <c r="V9" t="n">
+        <v>22161.74</v>
+      </c>
+      <c r="W9" t="n">
+        <v>22244.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>367.14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>274.37</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>274.38</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>267.49</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>898923.75</v>
+        <v>898778.41</v>
       </c>
       <c r="C10" t="n">
-        <v>901326.49</v>
+        <v>897386.3100000001</v>
       </c>
       <c r="D10" t="n">
-        <v>895536.58</v>
+        <v>922557.8</v>
       </c>
       <c r="E10" t="n">
-        <v>897059.13</v>
+        <v>899949.65</v>
       </c>
       <c r="F10" t="n">
-        <v>897418.8199999999</v>
+        <v>900872.34</v>
       </c>
       <c r="G10" t="n">
-        <v>900481.1</v>
+        <v>906121.4300000001</v>
       </c>
       <c r="H10" t="n">
-        <v>900520.3199999999</v>
+        <v>904358.51</v>
       </c>
       <c r="I10" t="n">
-        <v>899076.4</v>
+        <v>903879.36</v>
       </c>
       <c r="J10" t="n">
-        <v>901230.27</v>
+        <v>904522.6899999999</v>
       </c>
       <c r="K10" t="n">
-        <v>898985.15</v>
+        <v>906615.6800000001</v>
       </c>
       <c r="L10" t="n">
-        <v>896680.8</v>
+        <v>905652.01</v>
       </c>
       <c r="M10" t="n">
-        <v>898778.41</v>
+        <v>905484.26</v>
+      </c>
+      <c r="N10" t="n">
+        <v>904854.86</v>
+      </c>
+      <c r="O10" t="n">
+        <v>906065.6800000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>905723.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>906419.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>903871.13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>901771.26</v>
+      </c>
+      <c r="T10" t="n">
+        <v>898699.41</v>
+      </c>
+      <c r="U10" t="n">
+        <v>839300.54</v>
+      </c>
+      <c r="V10" t="n">
+        <v>841497.6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>841755.47</v>
+      </c>
+      <c r="X10" t="n">
+        <v>838864.84</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>842388.51</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>842824.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>839015.08</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37353.64</v>
+        <v>4471.02</v>
       </c>
       <c r="C11" t="n">
-        <v>37364.61</v>
+        <v>4472.72</v>
       </c>
       <c r="D11" t="n">
-        <v>37329.18</v>
+        <v>4585.84</v>
       </c>
       <c r="E11" t="n">
-        <v>37390.46</v>
+        <v>4466.37</v>
       </c>
       <c r="F11" t="n">
-        <v>37330.72</v>
+        <v>4471.19</v>
       </c>
       <c r="G11" t="n">
-        <v>37280.04</v>
+        <v>4469.27</v>
       </c>
       <c r="H11" t="n">
-        <v>37539.37</v>
+        <v>4468.01</v>
       </c>
       <c r="I11" t="n">
-        <v>37295.63</v>
+        <v>4471.63</v>
       </c>
       <c r="J11" t="n">
-        <v>37256.05</v>
+        <v>4466.49</v>
       </c>
       <c r="K11" t="n">
-        <v>4468.02</v>
+        <v>4470.56</v>
       </c>
       <c r="L11" t="n">
-        <v>4473.84</v>
+        <v>30822.27</v>
       </c>
       <c r="M11" t="n">
-        <v>4471.02</v>
+        <v>30807.56</v>
+      </c>
+      <c r="N11" t="n">
+        <v>30820.85</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10702.14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9891.76</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9887.17</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9902.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9888.709999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9845.51</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9898.700000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9887.139999999999</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9888.940000000001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9886.389999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9897.209999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9890.700000000001</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10514.44</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11805.46</v>
+        <v>11556.2</v>
       </c>
       <c r="C12" t="n">
-        <v>11801.98</v>
+        <v>11545.93</v>
       </c>
       <c r="D12" t="n">
-        <v>11795.95</v>
+        <v>11843.07</v>
       </c>
       <c r="E12" t="n">
-        <v>11806.34</v>
+        <v>11550.09</v>
       </c>
       <c r="F12" t="n">
-        <v>11550.99</v>
+        <v>11554.57</v>
       </c>
       <c r="G12" t="n">
-        <v>11551.15</v>
+        <v>11544</v>
       </c>
       <c r="H12" t="n">
-        <v>11612.59</v>
+        <v>11556.48</v>
       </c>
       <c r="I12" t="n">
-        <v>11555.65</v>
+        <v>11550.7</v>
       </c>
       <c r="J12" t="n">
-        <v>11552.82</v>
+        <v>11547.15</v>
       </c>
       <c r="K12" t="n">
-        <v>11547.66</v>
+        <v>11549.11</v>
       </c>
       <c r="L12" t="n">
-        <v>11549.06</v>
+        <v>11549.95</v>
       </c>
       <c r="M12" t="n">
-        <v>11556.2</v>
+        <v>11549.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11545.89</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11556.64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11555.7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11544.21</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11545.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11553.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11498.47</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11545.98</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11545.92</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11556</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11546.56</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11550.39</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11551.82</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11555.08</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28991.39</v>
+        <v>29026.27</v>
       </c>
       <c r="C13" t="n">
-        <v>29005.93</v>
+        <v>29011.76</v>
       </c>
       <c r="D13" t="n">
-        <v>28982.03</v>
+        <v>29772.02</v>
       </c>
       <c r="E13" t="n">
-        <v>29023.42</v>
+        <v>29044.99</v>
       </c>
       <c r="F13" t="n">
-        <v>29004.5</v>
+        <v>29017.76</v>
       </c>
       <c r="G13" t="n">
-        <v>29041.68</v>
+        <v>28999</v>
       </c>
       <c r="H13" t="n">
-        <v>29191.55</v>
+        <v>29034.19</v>
       </c>
       <c r="I13" t="n">
-        <v>29011.36</v>
+        <v>29017.95</v>
       </c>
       <c r="J13" t="n">
-        <v>29003.88</v>
+        <v>29027.71</v>
       </c>
       <c r="K13" t="n">
-        <v>29009.56</v>
+        <v>29002.35</v>
       </c>
       <c r="L13" t="n">
-        <v>28976.23</v>
+        <v>29013.38</v>
       </c>
       <c r="M13" t="n">
-        <v>29026.27</v>
+        <v>29001.83</v>
+      </c>
+      <c r="N13" t="n">
+        <v>28992.24</v>
+      </c>
+      <c r="O13" t="n">
+        <v>28976.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>28990.57</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>29027.29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>29011.8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>28986.67</v>
+      </c>
+      <c r="T13" t="n">
+        <v>28897.56</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29031.26</v>
+      </c>
+      <c r="V13" t="n">
+        <v>29001.86</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28975.32</v>
+      </c>
+      <c r="X13" t="n">
+        <v>29000.03</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>28959.73</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>28980.75</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29022.6</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1092459.64</v>
+        <v>1112113.93</v>
       </c>
       <c r="C14" t="n">
-        <v>1092300.83</v>
+        <v>1111747.4</v>
       </c>
       <c r="D14" t="n">
-        <v>1144575.52</v>
+        <v>1087691.22</v>
       </c>
       <c r="E14" t="n">
-        <v>1144496.64</v>
+        <v>1056372.15</v>
       </c>
       <c r="F14" t="n">
-        <v>1156834.25</v>
+        <v>1066488.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1175816.31</v>
+        <v>1081441.71</v>
       </c>
       <c r="H14" t="n">
-        <v>1191588.98</v>
+        <v>1140158.09</v>
       </c>
       <c r="I14" t="n">
-        <v>1172593.39</v>
+        <v>1265821.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1151784.11</v>
+        <v>1276189.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1151349.55</v>
+        <v>1275927.41</v>
       </c>
       <c r="L14" t="n">
-        <v>1112476.14</v>
+        <v>1367910.95</v>
       </c>
       <c r="M14" t="n">
-        <v>1112113.93</v>
+        <v>1498929.52</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1527106.66</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1610624.47</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1684039.94</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1525753.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1484827.27</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1483933.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1623636.52</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1573732.03</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1621679.09</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1643801.69</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1643844.86</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1642426.72</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1729566.87</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1825956.76</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>234651.57</v>
+        <v>283507.24</v>
       </c>
       <c r="C15" t="n">
-        <v>255256.87</v>
+        <v>283485.69</v>
       </c>
       <c r="D15" t="n">
-        <v>264621.23</v>
+        <v>290591.16</v>
       </c>
       <c r="E15" t="n">
-        <v>275529.11</v>
+        <v>283275.13</v>
       </c>
       <c r="F15" t="n">
-        <v>285935.51</v>
+        <v>283455.68</v>
       </c>
       <c r="G15" t="n">
-        <v>285762.22</v>
+        <v>283441.01</v>
       </c>
       <c r="H15" t="n">
-        <v>298164.31</v>
+        <v>277499.82</v>
       </c>
       <c r="I15" t="n">
-        <v>296580.92</v>
+        <v>277517.4</v>
       </c>
       <c r="J15" t="n">
-        <v>296537.2</v>
+        <v>282029.65</v>
       </c>
       <c r="K15" t="n">
-        <v>296714.39</v>
+        <v>292739.25</v>
       </c>
       <c r="L15" t="n">
-        <v>283517.04</v>
+        <v>304939.17</v>
       </c>
       <c r="M15" t="n">
-        <v>283507.24</v>
+        <v>310364.7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>328610.49</v>
+      </c>
+      <c r="O15" t="n">
+        <v>341744.42</v>
+      </c>
+      <c r="P15" t="n">
+        <v>355522.13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>400566.66</v>
+      </c>
+      <c r="R15" t="n">
+        <v>414494.19</v>
+      </c>
+      <c r="S15" t="n">
+        <v>432609.83</v>
+      </c>
+      <c r="T15" t="n">
+        <v>427424.69</v>
+      </c>
+      <c r="U15" t="n">
+        <v>429225.41</v>
+      </c>
+      <c r="V15" t="n">
+        <v>465702.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>498419.37</v>
+      </c>
+      <c r="X15" t="n">
+        <v>525634.58</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>520467.53</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>493713.45</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>486317.58</v>
       </c>
     </row>
     <row r="16">
@@ -1104,40 +1762,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540524.3100000001</v>
+        <v>507123.02</v>
       </c>
       <c r="C16" t="n">
-        <v>507065.21</v>
+        <v>507048.78</v>
       </c>
       <c r="D16" t="n">
-        <v>507478.91</v>
+        <v>520478.85</v>
       </c>
       <c r="E16" t="n">
-        <v>507595.91</v>
+        <v>507409.68</v>
       </c>
       <c r="F16" t="n">
-        <v>507056.67</v>
+        <v>507357.57</v>
       </c>
       <c r="G16" t="n">
-        <v>507308.53</v>
+        <v>507579.69</v>
       </c>
       <c r="H16" t="n">
-        <v>509756.51</v>
+        <v>506940.24</v>
       </c>
       <c r="I16" t="n">
-        <v>507127.61</v>
+        <v>507070.85</v>
       </c>
       <c r="J16" t="n">
-        <v>507208.65</v>
+        <v>507531.4</v>
       </c>
       <c r="K16" t="n">
-        <v>507186.53</v>
+        <v>507248.68</v>
       </c>
       <c r="L16" t="n">
-        <v>507002.14</v>
+        <v>507474.05</v>
       </c>
       <c r="M16" t="n">
-        <v>507123.02</v>
+        <v>507323.76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>507294.98</v>
+      </c>
+      <c r="O16" t="n">
+        <v>497620.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>472705.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>433261.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>433030.84</v>
+      </c>
+      <c r="S16" t="n">
+        <v>433162.35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>430975.66</v>
+      </c>
+      <c r="U16" t="n">
+        <v>432997.45</v>
+      </c>
+      <c r="V16" t="n">
+        <v>432994.36</v>
+      </c>
+      <c r="W16" t="n">
+        <v>432863.84</v>
+      </c>
+      <c r="X16" t="n">
+        <v>433057.64</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>433122.94</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>412047.44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>411591.86</v>
       </c>
     </row>
     <row r="17">
@@ -1147,40 +1847,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2111027.88</v>
+        <v>1953302.67</v>
       </c>
       <c r="C17" t="n">
-        <v>2090732.48</v>
+        <v>1948135.11</v>
       </c>
       <c r="D17" t="n">
-        <v>2073867.08</v>
+        <v>1988055.4</v>
       </c>
       <c r="E17" t="n">
-        <v>2049802.9</v>
+        <v>1927424.75</v>
       </c>
       <c r="F17" t="n">
-        <v>2034293.64</v>
+        <v>1927564.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2013829.13</v>
+        <v>1925178.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2006640.74</v>
+        <v>1927642.72</v>
       </c>
       <c r="I17" t="n">
-        <v>1990822.32</v>
+        <v>1958173.38</v>
       </c>
       <c r="J17" t="n">
-        <v>1972075.01</v>
+        <v>1984789.78</v>
       </c>
       <c r="K17" t="n">
-        <v>1961067.67</v>
+        <v>1984488.83</v>
       </c>
       <c r="L17" t="n">
-        <v>1955115.51</v>
+        <v>1983012.73</v>
       </c>
       <c r="M17" t="n">
-        <v>1953302.67</v>
+        <v>1983346.42</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1984433.98</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1981868.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1981908.06</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1985333.64</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1985131.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1984049.94</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1975128.83</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1982809.82</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1983908.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1984234.59</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1994843.58</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1992938.94</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1983508.48</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1956274.89</v>
       </c>
     </row>
     <row r="18">
@@ -1190,38 +1932,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2224279.86</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2082781.91</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2082279.5</v>
+      </c>
       <c r="D18" t="n">
-        <v>2224896.98</v>
+        <v>2134292.45</v>
       </c>
       <c r="E18" t="n">
-        <v>2224481.37</v>
+        <v>2081856.84</v>
       </c>
       <c r="F18" t="n">
-        <v>2225272.96</v>
+        <v>2081964.03</v>
       </c>
       <c r="G18" t="n">
-        <v>2226404.6</v>
+        <v>2081351.22</v>
       </c>
       <c r="H18" t="n">
-        <v>2237564.42</v>
+        <v>2082430.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2226040.84</v>
+        <v>2080754.12</v>
       </c>
       <c r="J18" t="n">
-        <v>2181563.79</v>
+        <v>2034016.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2180489.86</v>
+        <v>2032161.06</v>
       </c>
       <c r="L18" t="n">
-        <v>2181904.79</v>
+        <v>2032399.41</v>
       </c>
       <c r="M18" t="n">
-        <v>2082781.91</v>
+        <v>1985012.46</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1984952.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1985038.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1985736.61</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1984227.29</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1985241.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1986180.87</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1948705.27</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1958537.35</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1696821.48</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1697643.19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1697985.31</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1696111.14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1696802.29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1946860.28</v>
       </c>
     </row>
     <row r="19">
@@ -1231,38 +2017,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>995074.59</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>841323.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>751477.2</v>
+      </c>
       <c r="D19" t="n">
-        <v>841089.8</v>
+        <v>770558.3199999999</v>
       </c>
       <c r="E19" t="n">
-        <v>841878.96</v>
+        <v>751168.49</v>
       </c>
       <c r="F19" t="n">
-        <v>841118.63</v>
+        <v>751578.58</v>
       </c>
       <c r="G19" t="n">
-        <v>841006.4300000001</v>
+        <v>751281.02</v>
       </c>
       <c r="H19" t="n">
-        <v>845813.42</v>
+        <v>693352.34</v>
       </c>
       <c r="I19" t="n">
-        <v>841524.6800000001</v>
+        <v>693576.54</v>
       </c>
       <c r="J19" t="n">
-        <v>841628.66</v>
+        <v>693356.76</v>
       </c>
       <c r="K19" t="n">
-        <v>841746.7</v>
+        <v>693246.7</v>
       </c>
       <c r="L19" t="n">
-        <v>841588.16</v>
+        <v>693622.05</v>
       </c>
       <c r="M19" t="n">
-        <v>841323.38</v>
+        <v>693191.15</v>
+      </c>
+      <c r="N19" t="n">
+        <v>693172.9300000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>693171.88</v>
+      </c>
+      <c r="P19" t="n">
+        <v>694081.42</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>693853.38</v>
+      </c>
+      <c r="R19" t="n">
+        <v>694122.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>824689.15</v>
+      </c>
+      <c r="T19" t="n">
+        <v>821443.53</v>
+      </c>
+      <c r="U19" t="n">
+        <v>876362.9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>758265.03</v>
+      </c>
+      <c r="W19" t="n">
+        <v>758623.61</v>
+      </c>
+      <c r="X19" t="n">
+        <v>757905.61</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>758187.1899999999</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>758972.72</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>758372.08</v>
       </c>
     </row>
     <row r="20">
@@ -1272,38 +2102,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237529.61</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>187404.07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>187557.45</v>
+      </c>
       <c r="D20" t="n">
-        <v>237314.94</v>
+        <v>192441.71</v>
       </c>
       <c r="E20" t="n">
-        <v>237388.92</v>
+        <v>187441.05</v>
       </c>
       <c r="F20" t="n">
-        <v>237333.48</v>
+        <v>191059.38</v>
       </c>
       <c r="G20" t="n">
-        <v>237594.81</v>
+        <v>244495.81</v>
       </c>
       <c r="H20" t="n">
-        <v>237375.61</v>
+        <v>244251.11</v>
       </c>
       <c r="I20" t="n">
-        <v>237320.81</v>
+        <v>244254.88</v>
       </c>
       <c r="J20" t="n">
-        <v>237590.16</v>
+        <v>309167.12</v>
       </c>
       <c r="K20" t="n">
-        <v>237180.7</v>
+        <v>309354.94</v>
       </c>
       <c r="L20" t="n">
-        <v>237277.84</v>
+        <v>309349.18</v>
       </c>
       <c r="M20" t="n">
-        <v>187404.07</v>
+        <v>309515.17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>309344.04</v>
+      </c>
+      <c r="O20" t="n">
+        <v>309397.83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>309063.95</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>337151.39</v>
+      </c>
+      <c r="R20" t="n">
+        <v>337091.01</v>
+      </c>
+      <c r="S20" t="n">
+        <v>337326.49</v>
+      </c>
+      <c r="T20" t="n">
+        <v>337236.52</v>
+      </c>
+      <c r="U20" t="n">
+        <v>337368.99</v>
+      </c>
+      <c r="V20" t="n">
+        <v>337333.35</v>
+      </c>
+      <c r="W20" t="n">
+        <v>337344.72</v>
+      </c>
+      <c r="X20" t="n">
+        <v>337457.3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>238674.72</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>238706.85</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>238536.12</v>
       </c>
     </row>
     <row r="21">
@@ -1313,38 +2187,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7507.43</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>7508.64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7492.03</v>
+      </c>
       <c r="D21" t="n">
-        <v>7491.4</v>
+        <v>7691.02</v>
       </c>
       <c r="E21" t="n">
-        <v>7496.05</v>
+        <v>7507.94</v>
       </c>
       <c r="F21" t="n">
-        <v>7498.45</v>
+        <v>7493.89</v>
       </c>
       <c r="G21" t="n">
-        <v>7502.78</v>
+        <v>7505.75</v>
       </c>
       <c r="H21" t="n">
-        <v>7510.74</v>
+        <v>7509.19</v>
       </c>
       <c r="I21" t="n">
-        <v>7491.54</v>
+        <v>7500.93</v>
       </c>
       <c r="J21" t="n">
-        <v>7511.45</v>
+        <v>7491.32</v>
       </c>
       <c r="K21" t="n">
-        <v>7502.17</v>
+        <v>7490.5</v>
       </c>
       <c r="L21" t="n">
-        <v>7505.24</v>
+        <v>7507.25</v>
       </c>
       <c r="M21" t="n">
-        <v>7508.64</v>
+        <v>7510.85</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7499.49</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7510.46</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7493.86</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7508.24</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7508.9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7497.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7512.3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7490.26</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7505.72</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7503.23</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7490.31</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7503.86</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7505.55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7491.11</v>
       </c>
     </row>
     <row r="22">
@@ -1354,38 +2272,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16001.67</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>15985.67</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15987.5</v>
+      </c>
       <c r="D22" t="n">
-        <v>16012.77</v>
+        <v>16415.13</v>
       </c>
       <c r="E22" t="n">
-        <v>16014.77</v>
+        <v>15986.3</v>
       </c>
       <c r="F22" t="n">
-        <v>15988.85</v>
+        <v>16002.51</v>
       </c>
       <c r="G22" t="n">
-        <v>16000.03</v>
+        <v>16006.62</v>
       </c>
       <c r="H22" t="n">
-        <v>16005.35</v>
+        <v>16003.49</v>
       </c>
       <c r="I22" t="n">
-        <v>15999.59</v>
+        <v>16007.21</v>
       </c>
       <c r="J22" t="n">
-        <v>15985.94</v>
+        <v>15992.45</v>
       </c>
       <c r="K22" t="n">
-        <v>15984.9</v>
+        <v>16006.33</v>
       </c>
       <c r="L22" t="n">
-        <v>15996.62</v>
+        <v>16014.84</v>
       </c>
       <c r="M22" t="n">
-        <v>15985.67</v>
+        <v>16004.71</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15986.14</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15983.66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>15988.03</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>16017.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16001.14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15989.48</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15989.58</v>
+      </c>
+      <c r="U22" t="n">
+        <v>16006.53</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15994.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>15999.92</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15984.12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>16010.37</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16006.2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15992.17</v>
       </c>
     </row>
     <row r="23">
@@ -1395,38 +2357,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1849616.67</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>1377330.13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1376998.38</v>
+      </c>
       <c r="D23" t="n">
-        <v>1753381.46</v>
+        <v>1413139.28</v>
       </c>
       <c r="E23" t="n">
-        <v>1752994.25</v>
+        <v>1377401.17</v>
       </c>
       <c r="F23" t="n">
-        <v>1722659.05</v>
+        <v>1376893.13</v>
       </c>
       <c r="G23" t="n">
-        <v>1675565.1</v>
+        <v>1413163.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1676274.92</v>
+        <v>1413076.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1675888.8</v>
+        <v>1412273.68</v>
       </c>
       <c r="J23" t="n">
-        <v>1675920.65</v>
+        <v>1412105.98</v>
       </c>
       <c r="K23" t="n">
-        <v>1644923.24</v>
+        <v>1458612.46</v>
       </c>
       <c r="L23" t="n">
-        <v>1477622.2</v>
+        <v>1458679.79</v>
       </c>
       <c r="M23" t="n">
-        <v>1377330.13</v>
+        <v>1458312.57</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1459414.43</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1459074</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1458701.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1500323.24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1499505.03</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1499730.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1499749.19</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1499840.64</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1499970.79</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1499761.17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1499644.43</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1500386.03</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1499368.24</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1488859.51</v>
       </c>
     </row>
     <row r="24">
@@ -1436,38 +2442,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2056160.31</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>1889967.69</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1890826.85</v>
+      </c>
       <c r="D24" t="n">
-        <v>2025925.45</v>
+        <v>1938562.91</v>
       </c>
       <c r="E24" t="n">
-        <v>1989513.23</v>
+        <v>1890481.27</v>
       </c>
       <c r="F24" t="n">
-        <v>1990214.25</v>
+        <v>1890815.08</v>
       </c>
       <c r="G24" t="n">
-        <v>1988907.37</v>
+        <v>1925273.37</v>
       </c>
       <c r="H24" t="n">
-        <v>1990492.2</v>
+        <v>1924742.61</v>
       </c>
       <c r="I24" t="n">
-        <v>1989878.93</v>
+        <v>1925181.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1990329.51</v>
+        <v>1926612.98</v>
       </c>
       <c r="K24" t="n">
-        <v>1990007.09</v>
+        <v>1925044.12</v>
       </c>
       <c r="L24" t="n">
-        <v>1991094.69</v>
+        <v>1926387.24</v>
       </c>
       <c r="M24" t="n">
-        <v>1889967.69</v>
+        <v>1925559.94</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1924513.95</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1925214.27</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1925468.67</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1924690.36</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1926088.02</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1924343.69</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1926151.85</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1925049.53</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1906616.03</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1908608.53</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1906819.81</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1908748.24</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1908329.68</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1907937.1</v>
       </c>
     </row>
     <row r="25">
@@ -1477,38 +2527,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697652.6899999999</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>609084.29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>610332.3199999999</v>
+      </c>
       <c r="D25" t="n">
-        <v>698312.97</v>
+        <v>626977.42</v>
       </c>
       <c r="E25" t="n">
-        <v>697364.42</v>
+        <v>610263.91</v>
       </c>
       <c r="F25" t="n">
-        <v>699070.84</v>
+        <v>610786.52</v>
       </c>
       <c r="G25" t="n">
-        <v>697023.74</v>
+        <v>610096.02</v>
       </c>
       <c r="H25" t="n">
-        <v>698232.0600000001</v>
+        <v>611001.38</v>
       </c>
       <c r="I25" t="n">
-        <v>698094.12</v>
+        <v>609616.5699999999</v>
       </c>
       <c r="J25" t="n">
-        <v>698505.6800000001</v>
+        <v>610045.89</v>
       </c>
       <c r="K25" t="n">
-        <v>610882.37</v>
+        <v>610811.35</v>
       </c>
       <c r="L25" t="n">
-        <v>609303.12</v>
+        <v>610498.65</v>
       </c>
       <c r="M25" t="n">
-        <v>609084.29</v>
+        <v>610636.71</v>
+      </c>
+      <c r="N25" t="n">
+        <v>459752.14</v>
+      </c>
+      <c r="O25" t="n">
+        <v>458521.97</v>
+      </c>
+      <c r="P25" t="n">
+        <v>460283.34</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>459191.74</v>
+      </c>
+      <c r="R25" t="n">
+        <v>459415.67</v>
+      </c>
+      <c r="S25" t="n">
+        <v>460032.56</v>
+      </c>
+      <c r="T25" t="n">
+        <v>460106.61</v>
+      </c>
+      <c r="U25" t="n">
+        <v>459977.04</v>
+      </c>
+      <c r="V25" t="n">
+        <v>459073.94</v>
+      </c>
+      <c r="W25" t="n">
+        <v>459536.71</v>
+      </c>
+      <c r="X25" t="n">
+        <v>459405.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>459889.8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>458710.01</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>459457.23</v>
       </c>
     </row>
     <row r="26">
@@ -1518,38 +2612,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>837093.1</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>769197.47</v>
+      </c>
+      <c r="C26" t="n">
+        <v>764804.85</v>
+      </c>
       <c r="D26" t="n">
-        <v>836625.3199999999</v>
+        <v>784580.72</v>
       </c>
       <c r="E26" t="n">
-        <v>910809.39</v>
+        <v>799625</v>
       </c>
       <c r="F26" t="n">
-        <v>948613.51</v>
+        <v>947542.1</v>
       </c>
       <c r="G26" t="n">
-        <v>938789.52</v>
+        <v>976879.2</v>
       </c>
       <c r="H26" t="n">
-        <v>958670.87</v>
+        <v>977532.41</v>
       </c>
       <c r="I26" t="n">
-        <v>901085.1899999999</v>
+        <v>1008678.71</v>
       </c>
       <c r="J26" t="n">
-        <v>843868.28</v>
+        <v>1018819.99</v>
       </c>
       <c r="K26" t="n">
-        <v>791433.98</v>
+        <v>1027335.98</v>
       </c>
       <c r="L26" t="n">
-        <v>769269.48</v>
+        <v>1030641.07</v>
       </c>
       <c r="M26" t="n">
-        <v>769197.47</v>
+        <v>966190.45</v>
+      </c>
+      <c r="N26" t="n">
+        <v>875314.3100000001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>893896.78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>925110.09</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1018911.83</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1199296.44</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1207655.92</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1160907.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1166451.24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1331201.98</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1471021.7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1544649.78</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1439960.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1502395.82</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1438867.93</v>
       </c>
     </row>
     <row r="27">
@@ -1559,38 +2697,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>823407.99</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>731818.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>721931.1</v>
+      </c>
       <c r="D27" t="n">
-        <v>860303.14</v>
+        <v>740585.33</v>
       </c>
       <c r="E27" t="n">
-        <v>871428.04</v>
+        <v>796322.17</v>
       </c>
       <c r="F27" t="n">
-        <v>874369.03</v>
+        <v>891085.97</v>
       </c>
       <c r="G27" t="n">
-        <v>864997.36</v>
+        <v>911886.24</v>
       </c>
       <c r="H27" t="n">
-        <v>869552.95</v>
+        <v>916888.28</v>
       </c>
       <c r="I27" t="n">
-        <v>852779.51</v>
+        <v>936817.48</v>
       </c>
       <c r="J27" t="n">
-        <v>791554.28</v>
+        <v>990574.72</v>
       </c>
       <c r="K27" t="n">
-        <v>739711.36</v>
+        <v>990588.4</v>
       </c>
       <c r="L27" t="n">
-        <v>730718.5</v>
+        <v>1014032.49</v>
       </c>
       <c r="M27" t="n">
-        <v>731818.5</v>
+        <v>971551.63</v>
+      </c>
+      <c r="N27" t="n">
+        <v>884267.77</v>
+      </c>
+      <c r="O27" t="n">
+        <v>893995.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>921672.66</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1018176.87</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1138582.11</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1137486.41</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1112161.72</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1099901.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1215109.19</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1365230.23</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1395732.2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1315697.65</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1409710.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1407905.02</v>
       </c>
     </row>
     <row r="28">
@@ -1600,38 +2782,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1343412.19</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>1355944.14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1355836.46</v>
+      </c>
       <c r="D28" t="n">
-        <v>1354064</v>
+        <v>1392048.76</v>
       </c>
       <c r="E28" t="n">
-        <v>1467997.03</v>
+        <v>1363810.86</v>
       </c>
       <c r="F28" t="n">
-        <v>1458433.54</v>
+        <v>1434693.43</v>
       </c>
       <c r="G28" t="n">
-        <v>1459627.3</v>
+        <v>1514597.34</v>
       </c>
       <c r="H28" t="n">
-        <v>1460812.27</v>
+        <v>1489731.24</v>
       </c>
       <c r="I28" t="n">
-        <v>1455599.45</v>
+        <v>1565338.72</v>
       </c>
       <c r="J28" t="n">
-        <v>1427709.71</v>
+        <v>1615995.59</v>
       </c>
       <c r="K28" t="n">
-        <v>1422071.89</v>
+        <v>1675550.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1392491.7</v>
+        <v>1728657.71</v>
       </c>
       <c r="M28" t="n">
-        <v>1355944.14</v>
+        <v>1863710.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1899719.28</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1906365.27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1937712.14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2031852.93</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2105427.99</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2008056.61</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1982505.85</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2024587.22</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2134184.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2220782.56</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2316819.15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2185379.55</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2233644.08</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2052624.23</v>
       </c>
     </row>
     <row r="29">
@@ -1641,40 +2867,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>622840.87</v>
+        <v>695684.49</v>
       </c>
       <c r="C29" t="n">
-        <v>652445.66</v>
+        <v>677483.3</v>
       </c>
       <c r="D29" t="n">
-        <v>663111.13</v>
+        <v>694969.85</v>
       </c>
       <c r="E29" t="n">
-        <v>700544.55</v>
+        <v>658578.09</v>
       </c>
       <c r="F29" t="n">
-        <v>705883.8100000001</v>
+        <v>667950.29</v>
       </c>
       <c r="G29" t="n">
-        <v>706876.12</v>
+        <v>654952.02</v>
       </c>
       <c r="H29" t="n">
-        <v>705674.21</v>
+        <v>655710.89</v>
       </c>
       <c r="I29" t="n">
-        <v>706252</v>
+        <v>681148.34</v>
       </c>
       <c r="J29" t="n">
-        <v>705635.77</v>
+        <v>690708.27</v>
       </c>
       <c r="K29" t="n">
-        <v>706489.34</v>
+        <v>690623.8</v>
       </c>
       <c r="L29" t="n">
-        <v>696162.4</v>
+        <v>746563.62</v>
       </c>
       <c r="M29" t="n">
-        <v>695684.49</v>
+        <v>746073.91</v>
+      </c>
+      <c r="N29" t="n">
+        <v>768928.79</v>
+      </c>
+      <c r="O29" t="n">
+        <v>668105.17</v>
+      </c>
+      <c r="P29" t="n">
+        <v>689244.05</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>714164.13</v>
+      </c>
+      <c r="R29" t="n">
+        <v>738790.35</v>
+      </c>
+      <c r="S29" t="n">
+        <v>730630.97</v>
+      </c>
+      <c r="T29" t="n">
+        <v>738864.41</v>
+      </c>
+      <c r="U29" t="n">
+        <v>739435.5699999999</v>
+      </c>
+      <c r="V29" t="n">
+        <v>749828.41</v>
+      </c>
+      <c r="W29" t="n">
+        <v>818992.1899999999</v>
+      </c>
+      <c r="X29" t="n">
+        <v>838437.1800000001</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>827451.03</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>850382.12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>837328.63</v>
       </c>
     </row>
     <row r="30">
@@ -1684,40 +2952,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99230.78999999999</v>
+        <v>99071.84</v>
       </c>
       <c r="C30" t="n">
-        <v>98788.89</v>
+        <v>99238.05</v>
       </c>
       <c r="D30" t="n">
-        <v>99016.11</v>
+        <v>101555.71</v>
       </c>
       <c r="E30" t="n">
-        <v>99140.42</v>
+        <v>99180.02</v>
       </c>
       <c r="F30" t="n">
-        <v>98947.08</v>
+        <v>99135.36</v>
       </c>
       <c r="G30" t="n">
-        <v>98921.24000000001</v>
+        <v>99257.95</v>
       </c>
       <c r="H30" t="n">
-        <v>99464.16</v>
+        <v>98845.87</v>
       </c>
       <c r="I30" t="n">
-        <v>98936.82000000001</v>
+        <v>99206.89999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>98934.77</v>
+        <v>98812.73</v>
       </c>
       <c r="K30" t="n">
-        <v>98865.98</v>
+        <v>98785.21000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>99096.11</v>
+        <v>99002.94</v>
       </c>
       <c r="M30" t="n">
-        <v>99071.84</v>
+        <v>99150.25999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>99056.8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>99094.8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>99038</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>99103.14</v>
+      </c>
+      <c r="R30" t="n">
+        <v>98913.97</v>
+      </c>
+      <c r="S30" t="n">
+        <v>99074.02</v>
+      </c>
+      <c r="T30" t="n">
+        <v>99029.17999999999</v>
+      </c>
+      <c r="U30" t="n">
+        <v>98853.88</v>
+      </c>
+      <c r="V30" t="n">
+        <v>98924.69</v>
+      </c>
+      <c r="W30" t="n">
+        <v>99257.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>99149.14999999999</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>98758.27</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>99213.57000000001</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>98738.34</v>
       </c>
     </row>
     <row r="31">
@@ -1727,40 +3037,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6080452.74</v>
+        <v>6799397.29</v>
       </c>
       <c r="C31" t="n">
-        <v>6197094.41</v>
+        <v>6801962.73</v>
       </c>
       <c r="D31" t="n">
-        <v>6201618.5</v>
+        <v>6976537.68</v>
       </c>
       <c r="E31" t="n">
-        <v>6202107.59</v>
+        <v>6800230.63</v>
       </c>
       <c r="F31" t="n">
-        <v>6600562.53</v>
+        <v>6601328.92</v>
       </c>
       <c r="G31" t="n">
-        <v>6801882.53</v>
+        <v>6598156.63</v>
       </c>
       <c r="H31" t="n">
-        <v>6798202.69</v>
+        <v>6599272.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6798921.76</v>
+        <v>6602976.71</v>
       </c>
       <c r="J31" t="n">
-        <v>6798636.06</v>
+        <v>6196808.46</v>
       </c>
       <c r="K31" t="n">
-        <v>6800246.97</v>
+        <v>6197074.34</v>
       </c>
       <c r="L31" t="n">
-        <v>6799236.28</v>
+        <v>6200059.3</v>
       </c>
       <c r="M31" t="n">
-        <v>6799397.29</v>
+        <v>6102702.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6299813.14</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6301155.53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6500243.48</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6699932.92</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6898058.17</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6900977.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6897266.76</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6900854.22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6898342.34</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6901686.01</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6899606.04</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>6898329.45</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>6700466.23</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6702321.41</v>
       </c>
     </row>
     <row r="32">
@@ -1770,40 +3122,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>132530.34</v>
+        <v>117593.97</v>
       </c>
       <c r="C32" t="n">
-        <v>132550.47</v>
+        <v>117588.45</v>
       </c>
       <c r="D32" t="n">
-        <v>117493.02</v>
+        <v>120694.41</v>
       </c>
       <c r="E32" t="n">
-        <v>117659.12</v>
+        <v>117642.28</v>
       </c>
       <c r="F32" t="n">
-        <v>117488.55</v>
+        <v>117505.33</v>
       </c>
       <c r="G32" t="n">
-        <v>117594.13</v>
+        <v>117588</v>
       </c>
       <c r="H32" t="n">
-        <v>118300.97</v>
+        <v>117523.21</v>
       </c>
       <c r="I32" t="n">
-        <v>117520.18</v>
+        <v>117585.67</v>
       </c>
       <c r="J32" t="n">
-        <v>117558.5</v>
+        <v>117664.99</v>
       </c>
       <c r="K32" t="n">
-        <v>117636.29</v>
+        <v>117515.55</v>
       </c>
       <c r="L32" t="n">
-        <v>117634.45</v>
+        <v>117531.94</v>
       </c>
       <c r="M32" t="n">
-        <v>117593.97</v>
+        <v>117443.69</v>
+      </c>
+      <c r="N32" t="n">
+        <v>117600.9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>117537.21</v>
+      </c>
+      <c r="P32" t="n">
+        <v>117430.48</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>117588.07</v>
+      </c>
+      <c r="R32" t="n">
+        <v>117702.87</v>
+      </c>
+      <c r="S32" t="n">
+        <v>117433.48</v>
+      </c>
+      <c r="T32" t="n">
+        <v>117533.3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>117570.47</v>
+      </c>
+      <c r="V32" t="n">
+        <v>117531.64</v>
+      </c>
+      <c r="W32" t="n">
+        <v>117456.02</v>
+      </c>
+      <c r="X32" t="n">
+        <v>117660.45</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>117630.69</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>117601.9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>117616.39</v>
       </c>
     </row>
     <row r="33">
@@ -1813,40 +3207,82 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24222.87</v>
+        <v>24186.65</v>
       </c>
       <c r="C33" t="n">
-        <v>24177.25</v>
+        <v>24174.05</v>
       </c>
       <c r="D33" t="n">
-        <v>24203.87</v>
+        <v>24795.77</v>
       </c>
       <c r="E33" t="n">
-        <v>24184.32</v>
+        <v>24171.41</v>
       </c>
       <c r="F33" t="n">
-        <v>24214.73</v>
+        <v>24188.11</v>
       </c>
       <c r="G33" t="n">
-        <v>24216.45</v>
+        <v>24190.84</v>
       </c>
       <c r="H33" t="n">
-        <v>24317.57</v>
+        <v>24222.02</v>
       </c>
       <c r="I33" t="n">
-        <v>24220.1</v>
+        <v>24215.71</v>
       </c>
       <c r="J33" t="n">
-        <v>24190.32</v>
+        <v>24176.17</v>
       </c>
       <c r="K33" t="n">
-        <v>24228.85</v>
+        <v>24221.55</v>
       </c>
       <c r="L33" t="n">
-        <v>24215.09</v>
+        <v>24227.44</v>
       </c>
       <c r="M33" t="n">
-        <v>24186.65</v>
+        <v>24182.95</v>
+      </c>
+      <c r="N33" t="n">
+        <v>24199.98</v>
+      </c>
+      <c r="O33" t="n">
+        <v>24203.93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>24227.35</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>24191.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24179.48</v>
+      </c>
+      <c r="S33" t="n">
+        <v>24172.04</v>
+      </c>
+      <c r="T33" t="n">
+        <v>24209.21</v>
+      </c>
+      <c r="U33" t="n">
+        <v>24205.34</v>
+      </c>
+      <c r="V33" t="n">
+        <v>24169.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>24212.03</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24180.87</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>24231.57</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>24216.47</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>24172.1</v>
       </c>
     </row>
     <row r="34">
@@ -1856,40 +3292,82 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>501205.92</v>
+        <v>341076.03</v>
       </c>
       <c r="C34" t="n">
-        <v>491351.58</v>
+        <v>329037.62</v>
       </c>
       <c r="D34" t="n">
-        <v>490835.65</v>
+        <v>337681.13</v>
       </c>
       <c r="E34" t="n">
-        <v>491124.2</v>
+        <v>319313.82</v>
       </c>
       <c r="F34" t="n">
-        <v>476081.62</v>
+        <v>319234.87</v>
       </c>
       <c r="G34" t="n">
-        <v>465820.73</v>
+        <v>303888.06</v>
       </c>
       <c r="H34" t="n">
-        <v>468496.22</v>
+        <v>293779.48</v>
       </c>
       <c r="I34" t="n">
-        <v>405823.27</v>
+        <v>293795.3</v>
       </c>
       <c r="J34" t="n">
-        <v>400863.12</v>
+        <v>294177.73</v>
       </c>
       <c r="K34" t="n">
-        <v>380931.66</v>
+        <v>293888.92</v>
       </c>
       <c r="L34" t="n">
-        <v>340905.82</v>
+        <v>294056.93</v>
       </c>
       <c r="M34" t="n">
-        <v>341076.03</v>
+        <v>293759.52</v>
+      </c>
+      <c r="N34" t="n">
+        <v>349149.69</v>
+      </c>
+      <c r="O34" t="n">
+        <v>378907.67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>388961.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>399246.45</v>
+      </c>
+      <c r="R34" t="n">
+        <v>398753.95</v>
+      </c>
+      <c r="S34" t="n">
+        <v>404300.12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>404092.28</v>
+      </c>
+      <c r="U34" t="n">
+        <v>403736.7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>404254.48</v>
+      </c>
+      <c r="W34" t="n">
+        <v>433853.69</v>
+      </c>
+      <c r="X34" t="n">
+        <v>473758.81</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>473732.99</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>474262.61</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>489364.24</v>
       </c>
     </row>
     <row r="35">
@@ -1899,40 +3377,82 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>890426.16</v>
+        <v>786283.78</v>
       </c>
       <c r="C35" t="n">
-        <v>891680.0600000001</v>
+        <v>760761.24</v>
       </c>
       <c r="D35" t="n">
-        <v>861459.89</v>
+        <v>781042.08</v>
       </c>
       <c r="E35" t="n">
-        <v>860911.38</v>
+        <v>760787.9399999999</v>
       </c>
       <c r="F35" t="n">
-        <v>861172.4</v>
+        <v>760946.08</v>
       </c>
       <c r="G35" t="n">
-        <v>861219.5</v>
+        <v>791324.37</v>
       </c>
       <c r="H35" t="n">
-        <v>865147.42</v>
+        <v>790620.3</v>
       </c>
       <c r="I35" t="n">
-        <v>861225.48</v>
+        <v>806355.8199999999</v>
       </c>
       <c r="J35" t="n">
-        <v>861331.6899999999</v>
+        <v>805434.3</v>
       </c>
       <c r="K35" t="n">
-        <v>846211.5699999999</v>
+        <v>806514.73</v>
       </c>
       <c r="L35" t="n">
-        <v>785417.5600000001</v>
+        <v>805736.38</v>
       </c>
       <c r="M35" t="n">
-        <v>786283.78</v>
+        <v>806033.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>815545.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>816509.74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>821563.46</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>821105.0600000001</v>
+      </c>
+      <c r="R35" t="n">
+        <v>820999.74</v>
+      </c>
+      <c r="S35" t="n">
+        <v>821095.5699999999</v>
+      </c>
+      <c r="T35" t="n">
+        <v>820355.0699999999</v>
+      </c>
+      <c r="U35" t="n">
+        <v>811618.0699999999</v>
+      </c>
+      <c r="V35" t="n">
+        <v>825902.55</v>
+      </c>
+      <c r="W35" t="n">
+        <v>835488.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>836402.38</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>816177.72</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>796457.33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>780306.24</v>
       </c>
     </row>
     <row r="36">
@@ -1942,40 +3462,82 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120674.03</v>
+        <v>175042.79</v>
       </c>
       <c r="C36" t="n">
-        <v>126296.71</v>
+        <v>175229.56</v>
       </c>
       <c r="D36" t="n">
-        <v>162432.58</v>
+        <v>174620.83</v>
       </c>
       <c r="E36" t="n">
-        <v>170074.75</v>
+        <v>168448.62</v>
       </c>
       <c r="F36" t="n">
-        <v>168438.82</v>
+        <v>171498.15</v>
       </c>
       <c r="G36" t="n">
-        <v>168228.33</v>
+        <v>181777.52</v>
       </c>
       <c r="H36" t="n">
-        <v>200887.38</v>
+        <v>187291.17</v>
       </c>
       <c r="I36" t="n">
-        <v>200218.76</v>
+        <v>193727.74</v>
       </c>
       <c r="J36" t="n">
-        <v>200006.39</v>
+        <v>196918.79</v>
       </c>
       <c r="K36" t="n">
-        <v>200118.72</v>
+        <v>207019.79</v>
       </c>
       <c r="L36" t="n">
-        <v>198729.14</v>
+        <v>207068.06</v>
       </c>
       <c r="M36" t="n">
-        <v>175042.79</v>
+        <v>240533.98</v>
+      </c>
+      <c r="N36" t="n">
+        <v>240660.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>246776.7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>252420.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>252451.31</v>
+      </c>
+      <c r="R36" t="n">
+        <v>252568.76</v>
+      </c>
+      <c r="S36" t="n">
+        <v>252509.21</v>
+      </c>
+      <c r="T36" t="n">
+        <v>207453.73</v>
+      </c>
+      <c r="U36" t="n">
+        <v>264266.15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>258309.74</v>
+      </c>
+      <c r="W36" t="n">
+        <v>252874.58</v>
+      </c>
+      <c r="X36" t="n">
+        <v>262871.31</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>244816.34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>268031.81</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>267791.25</v>
       </c>
     </row>
     <row r="37">
@@ -1985,40 +3547,82 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35433.55</v>
+        <v>40058</v>
       </c>
       <c r="C37" t="n">
-        <v>35438.87</v>
+        <v>39040.99</v>
       </c>
       <c r="D37" t="n">
-        <v>40033.85</v>
+        <v>40053.68</v>
       </c>
       <c r="E37" t="n">
-        <v>40045.81</v>
+        <v>39050.42</v>
       </c>
       <c r="F37" t="n">
-        <v>40042.25</v>
+        <v>39036.14</v>
       </c>
       <c r="G37" t="n">
-        <v>40041.13</v>
+        <v>39050.54</v>
       </c>
       <c r="H37" t="n">
-        <v>40281.54</v>
+        <v>39051.76</v>
       </c>
       <c r="I37" t="n">
-        <v>40068.79</v>
+        <v>39029.51</v>
       </c>
       <c r="J37" t="n">
-        <v>40065.53</v>
+        <v>39022.43</v>
       </c>
       <c r="K37" t="n">
-        <v>40058.95</v>
+        <v>39043.65</v>
       </c>
       <c r="L37" t="n">
-        <v>40057.49</v>
+        <v>39048.03</v>
       </c>
       <c r="M37" t="n">
-        <v>40058</v>
+        <v>39021.43</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39032.26</v>
+      </c>
+      <c r="O37" t="n">
+        <v>39043.9</v>
+      </c>
+      <c r="P37" t="n">
+        <v>39028.38</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>39044.84</v>
+      </c>
+      <c r="R37" t="n">
+        <v>39052.1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>39032.62</v>
+      </c>
+      <c r="T37" t="n">
+        <v>38837.58</v>
+      </c>
+      <c r="U37" t="n">
+        <v>39045.27</v>
+      </c>
+      <c r="V37" t="n">
+        <v>39043.92</v>
+      </c>
+      <c r="W37" t="n">
+        <v>39048.03</v>
+      </c>
+      <c r="X37" t="n">
+        <v>36872.78</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>27605.34</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>27607.07</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>27600.84</v>
       </c>
     </row>
     <row r="38">
@@ -2028,40 +3632,82 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>146018.28</v>
+        <v>187546.69</v>
       </c>
       <c r="C38" t="n">
-        <v>168968.18</v>
+        <v>187784.69</v>
       </c>
       <c r="D38" t="n">
-        <v>188028.03</v>
+        <v>192412.48</v>
       </c>
       <c r="E38" t="n">
-        <v>204519.79</v>
+        <v>191399.66</v>
       </c>
       <c r="F38" t="n">
-        <v>204970.33</v>
+        <v>191345.13</v>
       </c>
       <c r="G38" t="n">
-        <v>204861.99</v>
+        <v>196872.31</v>
       </c>
       <c r="H38" t="n">
-        <v>204992.85</v>
+        <v>195400.44</v>
       </c>
       <c r="I38" t="n">
-        <v>217941.59</v>
+        <v>195555.63</v>
       </c>
       <c r="J38" t="n">
-        <v>213458.21</v>
+        <v>202328.94</v>
       </c>
       <c r="K38" t="n">
-        <v>195637.15</v>
+        <v>202355.73</v>
       </c>
       <c r="L38" t="n">
-        <v>187845.1</v>
+        <v>207973.76</v>
       </c>
       <c r="M38" t="n">
-        <v>187546.69</v>
+        <v>249980.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>247115.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>263807.56</v>
+      </c>
+      <c r="P38" t="n">
+        <v>263829.37</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>264031.38</v>
+      </c>
+      <c r="R38" t="n">
+        <v>264124.95</v>
+      </c>
+      <c r="S38" t="n">
+        <v>271784.77</v>
+      </c>
+      <c r="T38" t="n">
+        <v>280287.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>256714.98</v>
+      </c>
+      <c r="V38" t="n">
+        <v>270611.6</v>
+      </c>
+      <c r="W38" t="n">
+        <v>276545.83</v>
+      </c>
+      <c r="X38" t="n">
+        <v>278350.3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>275889.93</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>271441.29</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>274527.57</v>
       </c>
     </row>
     <row r="39">
@@ -2071,40 +3717,82 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101939.35</v>
+        <v>101884.54</v>
       </c>
       <c r="C39" t="n">
-        <v>102030.77</v>
+        <v>101999.4</v>
       </c>
       <c r="D39" t="n">
-        <v>101929.08</v>
+        <v>104451.28</v>
       </c>
       <c r="E39" t="n">
-        <v>101804.28</v>
+        <v>101933.27</v>
       </c>
       <c r="F39" t="n">
-        <v>101800.12</v>
+        <v>102046.91</v>
       </c>
       <c r="G39" t="n">
-        <v>101872.38</v>
+        <v>102020.23</v>
       </c>
       <c r="H39" t="n">
-        <v>102401.15</v>
+        <v>101950.54</v>
       </c>
       <c r="I39" t="n">
-        <v>101990.42</v>
+        <v>101830.83</v>
       </c>
       <c r="J39" t="n">
-        <v>101805.83</v>
+        <v>101824.04</v>
       </c>
       <c r="K39" t="n">
-        <v>102029.67</v>
+        <v>101995.4</v>
       </c>
       <c r="L39" t="n">
-        <v>101943.12</v>
+        <v>101926.31</v>
       </c>
       <c r="M39" t="n">
-        <v>101884.54</v>
+        <v>101909.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>102024.17</v>
+      </c>
+      <c r="O39" t="n">
+        <v>101858.9</v>
+      </c>
+      <c r="P39" t="n">
+        <v>91942.95</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>97170.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>97275.60000000001</v>
+      </c>
+      <c r="S39" t="n">
+        <v>97318.72</v>
+      </c>
+      <c r="T39" t="n">
+        <v>97330.12</v>
+      </c>
+      <c r="U39" t="n">
+        <v>142177.96</v>
+      </c>
+      <c r="V39" t="n">
+        <v>142171.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>142068.7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>142213.21</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>142322.95</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>142034.53</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>142329.29</v>
       </c>
     </row>
     <row r="40">
@@ -2114,40 +3802,82 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109322.8</v>
+        <v>91839.47</v>
       </c>
       <c r="C40" t="n">
-        <v>109287.81</v>
+        <v>101865.68</v>
       </c>
       <c r="D40" t="n">
-        <v>109371.86</v>
+        <v>113563.23</v>
       </c>
       <c r="E40" t="n">
-        <v>109364.71</v>
+        <v>121843.83</v>
       </c>
       <c r="F40" t="n">
-        <v>91858.89</v>
+        <v>121901.81</v>
       </c>
       <c r="G40" t="n">
-        <v>91903.97</v>
+        <v>121732.5</v>
       </c>
       <c r="H40" t="n">
-        <v>92270.13</v>
+        <v>132749.64</v>
       </c>
       <c r="I40" t="n">
-        <v>91726</v>
+        <v>132738.32</v>
       </c>
       <c r="J40" t="n">
-        <v>91832.77</v>
+        <v>132680.03</v>
       </c>
       <c r="K40" t="n">
-        <v>91901.16</v>
+        <v>132689.17</v>
       </c>
       <c r="L40" t="n">
-        <v>91747.39999999999</v>
+        <v>132746.7</v>
       </c>
       <c r="M40" t="n">
-        <v>91839.47</v>
+        <v>132692.43</v>
+      </c>
+      <c r="N40" t="n">
+        <v>132671.96</v>
+      </c>
+      <c r="O40" t="n">
+        <v>132761.43</v>
+      </c>
+      <c r="P40" t="n">
+        <v>132672.08</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>132620.39</v>
+      </c>
+      <c r="R40" t="n">
+        <v>132706.6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>132776.88</v>
+      </c>
+      <c r="T40" t="n">
+        <v>132687.16</v>
+      </c>
+      <c r="U40" t="n">
+        <v>132675.12</v>
+      </c>
+      <c r="V40" t="n">
+        <v>132586.14</v>
+      </c>
+      <c r="W40" t="n">
+        <v>169683.99</v>
+      </c>
+      <c r="X40" t="n">
+        <v>169844.26</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>169885.81</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>167002.06</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>167011.01</v>
       </c>
     </row>
     <row r="41">
@@ -2157,38 +3887,82 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323614.49</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>387037.32</v>
+      </c>
+      <c r="C41" t="n">
+        <v>386807.99</v>
+      </c>
       <c r="D41" t="n">
-        <v>323843.43</v>
+        <v>396875.79</v>
       </c>
       <c r="E41" t="n">
-        <v>324182.52</v>
+        <v>387038.74</v>
       </c>
       <c r="F41" t="n">
-        <v>368893.54</v>
+        <v>386533.5</v>
       </c>
       <c r="G41" t="n">
-        <v>386689.22</v>
+        <v>386692.88</v>
       </c>
       <c r="H41" t="n">
-        <v>388604.25</v>
+        <v>387090.61</v>
       </c>
       <c r="I41" t="n">
-        <v>386515.9</v>
+        <v>386767.92</v>
       </c>
       <c r="J41" t="n">
-        <v>387210.81</v>
+        <v>386830.53</v>
       </c>
       <c r="K41" t="n">
-        <v>386960.18</v>
+        <v>387057.78</v>
       </c>
       <c r="L41" t="n">
-        <v>387117.06</v>
+        <v>386786.24</v>
       </c>
       <c r="M41" t="n">
-        <v>387037.32</v>
+        <v>499117.89</v>
+      </c>
+      <c r="N41" t="n">
+        <v>498728.71</v>
+      </c>
+      <c r="O41" t="n">
+        <v>499014.48</v>
+      </c>
+      <c r="P41" t="n">
+        <v>498662.81</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>499268.24</v>
+      </c>
+      <c r="R41" t="n">
+        <v>560114.64</v>
+      </c>
+      <c r="S41" t="n">
+        <v>586770.22</v>
+      </c>
+      <c r="T41" t="n">
+        <v>586544.17</v>
+      </c>
+      <c r="U41" t="n">
+        <v>586901.88</v>
+      </c>
+      <c r="V41" t="n">
+        <v>587212.53</v>
+      </c>
+      <c r="W41" t="n">
+        <v>586697.78</v>
+      </c>
+      <c r="X41" t="n">
+        <v>604614.09</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>604350.1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>636641.23</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>636331.79</v>
       </c>
     </row>
     <row r="42">
@@ -2198,40 +3972,82 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>752391.42</v>
+        <v>751953.34</v>
       </c>
       <c r="C42" t="n">
-        <v>752047.52</v>
+        <v>751949.62</v>
       </c>
       <c r="D42" t="n">
-        <v>751660.05</v>
+        <v>771519.66</v>
       </c>
       <c r="E42" t="n">
-        <v>751793.21</v>
+        <v>752195.0600000001</v>
       </c>
       <c r="F42" t="n">
-        <v>751774.42</v>
+        <v>751563.48</v>
       </c>
       <c r="G42" t="n">
-        <v>752201.99</v>
+        <v>752010.67</v>
       </c>
       <c r="H42" t="n">
-        <v>756271.4300000001</v>
+        <v>752207.87</v>
       </c>
       <c r="I42" t="n">
-        <v>751718.6</v>
+        <v>751823.49</v>
       </c>
       <c r="J42" t="n">
-        <v>752014.3100000001</v>
+        <v>1012755.25</v>
       </c>
       <c r="K42" t="n">
-        <v>752019.62</v>
+        <v>1012747.55</v>
       </c>
       <c r="L42" t="n">
-        <v>751657.89</v>
+        <v>1011956.58</v>
       </c>
       <c r="M42" t="n">
-        <v>751953.34</v>
+        <v>1012075.13</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1012280.93</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1013105.8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1011799.99</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1012377.43</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1013015.17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1225756.93</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1220450.17</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1226559.45</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1325917.6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1423188.21</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1422680.21</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1315894.33</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1315630.53</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1316955.36</v>
       </c>
     </row>
     <row r="43">
@@ -2241,40 +4057,82 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182433.71</v>
+        <v>246827.82</v>
       </c>
       <c r="C43" t="n">
-        <v>222467.76</v>
+        <v>301862.86</v>
       </c>
       <c r="D43" t="n">
-        <v>222205.4</v>
+        <v>309739.84</v>
       </c>
       <c r="E43" t="n">
-        <v>229263.64</v>
+        <v>301719.59</v>
       </c>
       <c r="F43" t="n">
-        <v>229302.26</v>
+        <v>307824.35</v>
       </c>
       <c r="G43" t="n">
-        <v>229455.68</v>
+        <v>337866.24</v>
       </c>
       <c r="H43" t="n">
-        <v>230550.27</v>
+        <v>337592.82</v>
       </c>
       <c r="I43" t="n">
-        <v>229505.01</v>
+        <v>327601.73</v>
       </c>
       <c r="J43" t="n">
-        <v>241478.04</v>
+        <v>327972.98</v>
       </c>
       <c r="K43" t="n">
-        <v>226248.14</v>
+        <v>334747.47</v>
       </c>
       <c r="L43" t="n">
-        <v>246941.65</v>
+        <v>349762.93</v>
       </c>
       <c r="M43" t="n">
-        <v>246827.82</v>
+        <v>357059.16</v>
+      </c>
+      <c r="N43" t="n">
+        <v>356925.85</v>
+      </c>
+      <c r="O43" t="n">
+        <v>356691.31</v>
+      </c>
+      <c r="P43" t="n">
+        <v>321780.53</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>381704.25</v>
+      </c>
+      <c r="R43" t="n">
+        <v>431536.01</v>
+      </c>
+      <c r="S43" t="n">
+        <v>431544.25</v>
+      </c>
+      <c r="T43" t="n">
+        <v>459653.18</v>
+      </c>
+      <c r="U43" t="n">
+        <v>502039.68</v>
+      </c>
+      <c r="V43" t="n">
+        <v>501778.23</v>
+      </c>
+      <c r="W43" t="n">
+        <v>508918.06</v>
+      </c>
+      <c r="X43" t="n">
+        <v>518061.06</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>482100.2</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>450769.98</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>450748.79</v>
       </c>
     </row>
     <row r="44">
@@ -2284,40 +4142,82 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352786.47</v>
+        <v>352265.39</v>
       </c>
       <c r="C44" t="n">
-        <v>352905.89</v>
+        <v>388418.79</v>
       </c>
       <c r="D44" t="n">
-        <v>352466.23</v>
+        <v>415376.55</v>
       </c>
       <c r="E44" t="n">
-        <v>352832.77</v>
+        <v>404453.46</v>
       </c>
       <c r="F44" t="n">
-        <v>352546.42</v>
+        <v>404420.11</v>
       </c>
       <c r="G44" t="n">
-        <v>352607.96</v>
+        <v>404654.28</v>
       </c>
       <c r="H44" t="n">
-        <v>354091.77</v>
+        <v>485494.73</v>
       </c>
       <c r="I44" t="n">
-        <v>352509.86</v>
+        <v>485592.91</v>
       </c>
       <c r="J44" t="n">
-        <v>352511.08</v>
+        <v>485153.67</v>
       </c>
       <c r="K44" t="n">
-        <v>352917.97</v>
+        <v>485824.01</v>
       </c>
       <c r="L44" t="n">
-        <v>352318.42</v>
+        <v>485170.01</v>
       </c>
       <c r="M44" t="n">
-        <v>352265.39</v>
+        <v>485365.45</v>
+      </c>
+      <c r="N44" t="n">
+        <v>485858.54</v>
+      </c>
+      <c r="O44" t="n">
+        <v>424779.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>393030.79</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>392329.29</v>
+      </c>
+      <c r="R44" t="n">
+        <v>392871.32</v>
+      </c>
+      <c r="S44" t="n">
+        <v>392468.64</v>
+      </c>
+      <c r="T44" t="n">
+        <v>392518.2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>392933.29</v>
+      </c>
+      <c r="V44" t="n">
+        <v>393012.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>426214.7</v>
+      </c>
+      <c r="X44" t="n">
+        <v>425947.9</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>426346.79</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>452063.19</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>451888.98</v>
       </c>
     </row>
     <row r="45">
@@ -2327,40 +4227,82 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>245597.84</v>
+        <v>241655.89</v>
       </c>
       <c r="C45" t="n">
-        <v>245914.59</v>
+        <v>228931.29</v>
       </c>
       <c r="D45" t="n">
-        <v>231257.93</v>
+        <v>234797.94</v>
       </c>
       <c r="E45" t="n">
-        <v>227079.28</v>
+        <v>231466.87</v>
       </c>
       <c r="F45" t="n">
-        <v>245147.22</v>
+        <v>228404.84</v>
       </c>
       <c r="G45" t="n">
-        <v>247708.88</v>
+        <v>248624.08</v>
       </c>
       <c r="H45" t="n">
-        <v>249622.66</v>
+        <v>248560.14</v>
       </c>
       <c r="I45" t="n">
-        <v>248545.87</v>
+        <v>248488.7</v>
       </c>
       <c r="J45" t="n">
-        <v>248696.97</v>
+        <v>248539.5</v>
       </c>
       <c r="K45" t="n">
-        <v>248648.52</v>
+        <v>248491.84</v>
       </c>
       <c r="L45" t="n">
-        <v>248392.08</v>
+        <v>245276.87</v>
       </c>
       <c r="M45" t="n">
-        <v>241655.89</v>
+        <v>298960.11</v>
+      </c>
+      <c r="N45" t="n">
+        <v>294145.06</v>
+      </c>
+      <c r="O45" t="n">
+        <v>296514.35</v>
+      </c>
+      <c r="P45" t="n">
+        <v>318881.36</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>322681.92</v>
+      </c>
+      <c r="R45" t="n">
+        <v>322634.92</v>
+      </c>
+      <c r="S45" t="n">
+        <v>322838.69</v>
+      </c>
+      <c r="T45" t="n">
+        <v>351883.76</v>
+      </c>
+      <c r="U45" t="n">
+        <v>353459.99</v>
+      </c>
+      <c r="V45" t="n">
+        <v>348620.39</v>
+      </c>
+      <c r="W45" t="n">
+        <v>348427.6</v>
+      </c>
+      <c r="X45" t="n">
+        <v>428750.43</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>428524.17</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>428632.55</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>428963.37</v>
       </c>
     </row>
     <row r="46">
@@ -2370,40 +4312,82 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1281351.12</v>
+        <v>1167576.43</v>
       </c>
       <c r="C46" t="n">
-        <v>1281210.23</v>
+        <v>1167007.38</v>
       </c>
       <c r="D46" t="n">
-        <v>1280789.03</v>
+        <v>1197502.49</v>
       </c>
       <c r="E46" t="n">
-        <v>1281092.69</v>
+        <v>1168090.86</v>
       </c>
       <c r="F46" t="n">
-        <v>1280926.2</v>
+        <v>1130189.19</v>
       </c>
       <c r="G46" t="n">
-        <v>1280653.58</v>
+        <v>1130251.43</v>
       </c>
       <c r="H46" t="n">
-        <v>1202953.82</v>
+        <v>1129050.52</v>
       </c>
       <c r="I46" t="n">
-        <v>1219207.66</v>
+        <v>1129378.3</v>
       </c>
       <c r="J46" t="n">
-        <v>1219571.14</v>
+        <v>1130763.94</v>
       </c>
       <c r="K46" t="n">
-        <v>1219621.89</v>
+        <v>1130631.73</v>
       </c>
       <c r="L46" t="n">
-        <v>1167398.1</v>
+        <v>1223095.69</v>
       </c>
       <c r="M46" t="n">
-        <v>1167576.43</v>
+        <v>1291238.9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1292118.94</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1291402.93</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1072811.05</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1072829.64</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1073847.14</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1074168.38</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1072885.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1073751.63</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1073536.99</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1074082.88</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1073106.43</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1053156.14</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1127449.17</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1127174.81</v>
       </c>
     </row>
     <row r="47">
@@ -2413,280 +4397,507 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2237061.58</v>
+        <v>2316647.25</v>
       </c>
       <c r="C47" t="n">
-        <v>2238299.03</v>
+        <v>2317755.8</v>
       </c>
       <c r="D47" t="n">
-        <v>2236187.14</v>
+        <v>2376832.21</v>
       </c>
       <c r="E47" t="n">
-        <v>2317220.52</v>
+        <v>2317340.77</v>
       </c>
       <c r="F47" t="n">
-        <v>2319550.38</v>
+        <v>2318792.9</v>
       </c>
       <c r="G47" t="n">
-        <v>2320132.33</v>
+        <v>2317467.47</v>
       </c>
       <c r="H47" t="n">
-        <v>2325697.34</v>
+        <v>2319162.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2308989.77</v>
+        <v>2425833.18</v>
       </c>
       <c r="J47" t="n">
-        <v>2317972.43</v>
+        <v>2477251.84</v>
       </c>
       <c r="K47" t="n">
-        <v>2318550.52</v>
+        <v>2475273.77</v>
       </c>
       <c r="L47" t="n">
-        <v>2318143.71</v>
+        <v>2582550.17</v>
       </c>
       <c r="M47" t="n">
-        <v>2316647.25</v>
+        <v>2874750.93</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2876224.44</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2874337.64</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2875427.03</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2874777.46</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2876664.68</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2876171.05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2875036.66</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2872747.92</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2874819.57</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2877106.43</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2875428.76</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2874761.73</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2875437.53</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2875597.29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3815299.8</v>
+        <v>3755338.8</v>
       </c>
       <c r="C48" t="n">
-        <v>3981705.87</v>
+        <v>3753102.35</v>
       </c>
       <c r="D48" t="n">
-        <v>4722401.85</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+        <v>3849961.03</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3751921.26</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3785041.32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3785841.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3784281.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3785263.49</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3786051.29</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3781741</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3785830.7</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3786378.08</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3781690.41</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3786454.21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3785579.26</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3783197.8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3861463.67</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3859158.29</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4054441.41</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3975415.42</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3978685.72</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3979020.41</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4486591.05</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4489442</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>4482816.37</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>4488124.06</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3751419.83</v>
+        <v>844109.21</v>
       </c>
       <c r="C49" t="n">
-        <v>3753808.9</v>
+        <v>844431.1800000001</v>
       </c>
       <c r="D49" t="n">
-        <v>3753153.52</v>
+        <v>866394.5</v>
       </c>
       <c r="E49" t="n">
-        <v>3753997.54</v>
+        <v>845554.6899999999</v>
       </c>
       <c r="F49" t="n">
-        <v>3754193.77</v>
+        <v>845737.84</v>
       </c>
       <c r="G49" t="n">
-        <v>3752624.76</v>
+        <v>843840.08</v>
       </c>
       <c r="H49" t="n">
-        <v>3704500.63</v>
+        <v>843830.8</v>
       </c>
       <c r="I49" t="n">
-        <v>3754398.73</v>
+        <v>845462.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3751332.58</v>
+        <v>844098.97</v>
       </c>
       <c r="K49" t="n">
-        <v>3754488.76</v>
+        <v>844682.11</v>
       </c>
       <c r="L49" t="n">
-        <v>3752990.07</v>
+        <v>845443.8100000001</v>
       </c>
       <c r="M49" t="n">
-        <v>3755338.8</v>
+        <v>845219.97</v>
+      </c>
+      <c r="N49" t="n">
+        <v>845478.33</v>
+      </c>
+      <c r="O49" t="n">
+        <v>844560.13</v>
+      </c>
+      <c r="P49" t="n">
+        <v>844241.36</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>844349.73</v>
+      </c>
+      <c r="R49" t="n">
+        <v>844245.48</v>
+      </c>
+      <c r="S49" t="n">
+        <v>843709.96</v>
+      </c>
+      <c r="T49" t="n">
+        <v>845203.35</v>
+      </c>
+      <c r="U49" t="n">
+        <v>843983.7</v>
+      </c>
+      <c r="V49" t="n">
+        <v>845306.95</v>
+      </c>
+      <c r="W49" t="n">
+        <v>844648.48</v>
+      </c>
+      <c r="X49" t="n">
+        <v>844181.01</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>844136.66</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>737075.1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>736624.55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>844626.27</v>
+        <v>149337.82</v>
       </c>
       <c r="C50" t="n">
-        <v>844640.45</v>
+        <v>149333.29</v>
       </c>
       <c r="D50" t="n">
-        <v>844230.3</v>
+        <v>153153.35</v>
       </c>
       <c r="E50" t="n">
-        <v>844453</v>
+        <v>149266.76</v>
       </c>
       <c r="F50" t="n">
-        <v>845120.9</v>
+        <v>149251.44</v>
       </c>
       <c r="G50" t="n">
-        <v>845020.6</v>
+        <v>149311.51</v>
       </c>
       <c r="H50" t="n">
-        <v>833747</v>
+        <v>149487.1</v>
       </c>
       <c r="I50" t="n">
-        <v>843927.35</v>
+        <v>149244.37</v>
       </c>
       <c r="J50" t="n">
-        <v>845578.02</v>
+        <v>149345.12</v>
       </c>
       <c r="K50" t="n">
-        <v>845471.83</v>
+        <v>149405.81</v>
       </c>
       <c r="L50" t="n">
-        <v>844480.22</v>
+        <v>149323.5</v>
       </c>
       <c r="M50" t="n">
-        <v>844109.21</v>
+        <v>149287.18</v>
+      </c>
+      <c r="N50" t="n">
+        <v>149231.61</v>
+      </c>
+      <c r="O50" t="n">
+        <v>149348.19</v>
+      </c>
+      <c r="P50" t="n">
+        <v>149526.98</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>159581.85</v>
+      </c>
+      <c r="R50" t="n">
+        <v>159648.96</v>
+      </c>
+      <c r="S50" t="n">
+        <v>159677.96</v>
+      </c>
+      <c r="T50" t="n">
+        <v>158706.21</v>
+      </c>
+      <c r="U50" t="n">
+        <v>159763.54</v>
+      </c>
+      <c r="V50" t="n">
+        <v>159564.73</v>
+      </c>
+      <c r="W50" t="n">
+        <v>159686.04</v>
+      </c>
+      <c r="X50" t="n">
+        <v>159761.16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>159535.13</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>159547.02</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>159579.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>158599.93</v>
+        <v>790183.08</v>
       </c>
       <c r="C51" t="n">
-        <v>149476.03</v>
+        <v>788163.47</v>
       </c>
       <c r="D51" t="n">
-        <v>149434.39</v>
+        <v>807662.72</v>
       </c>
       <c r="E51" t="n">
-        <v>149441.16</v>
+        <v>789720.48</v>
       </c>
       <c r="F51" t="n">
-        <v>149481.19</v>
+        <v>795165.83</v>
       </c>
       <c r="G51" t="n">
-        <v>149411.65</v>
+        <v>803201.1800000001</v>
       </c>
       <c r="H51" t="n">
-        <v>150275.77</v>
+        <v>805314.88</v>
       </c>
       <c r="I51" t="n">
-        <v>149490.9</v>
+        <v>813155.13</v>
       </c>
       <c r="J51" t="n">
-        <v>149496.07</v>
+        <v>819550.84</v>
       </c>
       <c r="K51" t="n">
-        <v>149320.71</v>
+        <v>823455.5</v>
       </c>
       <c r="L51" t="n">
-        <v>149435.92</v>
+        <v>832448.97</v>
       </c>
       <c r="M51" t="n">
-        <v>149337.82</v>
+        <v>845580.72</v>
+      </c>
+      <c r="N51" t="n">
+        <v>849895.9300000001</v>
+      </c>
+      <c r="O51" t="n">
+        <v>850487.3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>853947.51</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>866773.9300000001</v>
+      </c>
+      <c r="R51" t="n">
+        <v>882870.8199999999</v>
+      </c>
+      <c r="S51" t="n">
+        <v>893216.79</v>
+      </c>
+      <c r="T51" t="n">
+        <v>895245.61</v>
+      </c>
+      <c r="U51" t="n">
+        <v>896133.13</v>
+      </c>
+      <c r="V51" t="n">
+        <v>905758.6899999999</v>
+      </c>
+      <c r="W51" t="n">
+        <v>921404.01</v>
+      </c>
+      <c r="X51" t="n">
+        <v>944172.72</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>930667.51</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>931906.15</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>931135.41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>863136.74</v>
+        <v>38718970.69</v>
       </c>
       <c r="C52" t="n">
-        <v>846907.1800000001</v>
+        <v>38620010</v>
       </c>
       <c r="D52" t="n">
-        <v>889673.85</v>
+        <v>39575473.35</v>
       </c>
       <c r="E52" t="n">
-        <v>819855.8199999999</v>
+        <v>38696303.34</v>
       </c>
       <c r="F52" t="n">
-        <v>827988.5</v>
+        <v>38963125.55</v>
       </c>
       <c r="G52" t="n">
-        <v>831091.71</v>
+        <v>39356857.68</v>
       </c>
       <c r="H52" t="n">
-        <v>829944.39</v>
+        <v>39460429.19</v>
       </c>
       <c r="I52" t="n">
-        <v>824980.84</v>
+        <v>39844601.36</v>
       </c>
       <c r="J52" t="n">
-        <v>820144.8199999999</v>
+        <v>40157991.2</v>
       </c>
       <c r="K52" t="n">
-        <v>811784.4399999999</v>
+        <v>40349319.68</v>
       </c>
       <c r="L52" t="n">
-        <v>797801.1899999999</v>
+        <v>40789999.63</v>
       </c>
       <c r="M52" t="n">
-        <v>790183.08</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>43156837.09</v>
-      </c>
-      <c r="C53" t="n">
-        <v>32182472.69</v>
-      </c>
-      <c r="D53" t="n">
-        <v>44483692.29</v>
-      </c>
-      <c r="E53" t="n">
-        <v>40172935.21</v>
-      </c>
-      <c r="F53" t="n">
-        <v>40571436.58</v>
-      </c>
-      <c r="G53" t="n">
-        <v>40723493.96</v>
-      </c>
-      <c r="H53" t="n">
-        <v>40667275.06</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40424061.24</v>
-      </c>
-      <c r="J53" t="n">
-        <v>40187096.01</v>
-      </c>
-      <c r="K53" t="n">
-        <v>39777437.71</v>
-      </c>
-      <c r="L53" t="n">
-        <v>39092258.16</v>
-      </c>
-      <c r="M53" t="n">
-        <v>38718970.69</v>
+        <v>41433455.47</v>
+      </c>
+      <c r="N52" t="n">
+        <v>41644900.68</v>
+      </c>
+      <c r="O52" t="n">
+        <v>41673877.57</v>
+      </c>
+      <c r="P52" t="n">
+        <v>41843427.95</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>42471922.8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>43260670.34</v>
+      </c>
+      <c r="S52" t="n">
+        <v>43767622.54</v>
+      </c>
+      <c r="T52" t="n">
+        <v>43867034.7</v>
+      </c>
+      <c r="U52" t="n">
+        <v>43910523.48</v>
+      </c>
+      <c r="V52" t="n">
+        <v>44382175.57</v>
+      </c>
+      <c r="W52" t="n">
+        <v>45148796.45</v>
+      </c>
+      <c r="X52" t="n">
+        <v>46264463.19</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>45602707.77</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>45663401.51</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>45625634.95</v>
       </c>
     </row>
   </sheetData>
